--- a/test1.xlsx
+++ b/test1.xlsx
@@ -397,16 +397,16 @@
         <v>微信</v>
       </c>
       <c r="G1" t="str">
-        <v>夜月都市</v>
+        <v>NicheFuture</v>
       </c>
       <c r="H1" t="str">
         <v>-</v>
       </c>
       <c r="I1" t="str">
-        <v>▶跳广场舞庆八一，歌好听，舞更美！</v>
+        <v>丢skr人了，DS专业还不懂这些</v>
       </c>
       <c r="J1" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=v1N0cgPXafy67-SQmTuK*zcmfOJeqRwAQ4K2KAMsVRkWVZJV9IZEH7RZL8F9IZ2s6Nj2uWzOTo7PywcbA67MOjjFfF8bc8qXUFpCipX3PDa92uebZBQ2vd8G48txHuuW&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=XX5HnumkymVJ-t4Lhwu62XiKqNy4mlRGUwGJFYrRYowcNNBCM1t-oTMu912UuT6YLLmbWOO8GyDKxoYkb2EOoOBUWHcshfYz4G96C2uSjGOFmwvKM*y1*Xd6KqytkTeq&amp;new=1</v>
       </c>
       <c r="K1" t="str">
         <v>Tone</v>
@@ -432,16 +432,16 @@
         <v>微信</v>
       </c>
       <c r="G2" t="str">
-        <v>DS百科网</v>
+        <v>小亦飞翔商务有限公司</v>
       </c>
       <c r="H2" t="str">
         <v>-</v>
       </c>
       <c r="I2" t="str">
-        <v>独家报道|雅芳全球人事大调整</v>
+        <v>赴美生子—爸爸不去，身份证做DS-3053公证有何要求？</v>
       </c>
       <c r="J2" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=2cMXcs0yFgHEc3ZU8OEbProOVfiMBXZuch*jQzk3j61EvMhmcedDpU01gh*ye85XvuRFY7Th53fPDyV2GrvYBN5gzhP3yxnqIBKObiyj4QyGqOBTBOTrpLavw3MrZFCP&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=XVuf8WWVPjWJNUjhQnCO9SUMaJYfDch0R225UOSAwLRWgfiCi3M5NwPKfHbfiWJQq3V-Gkh2PGT4TwtUeKIkrg5i4XKaLpk8uZpAliJKjJJWyaURJJDNyJt2cvSSNekK&amp;new=1</v>
       </c>
       <c r="K2" t="str">
         <v>Tone</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>2018-08-01</v>
+        <v>2018-07-30</v>
       </c>
       <c r="C3" t="str">
         <v>日常Daily</v>
@@ -467,16 +467,16 @@
         <v>微信</v>
       </c>
       <c r="G3" t="str">
-        <v>DS百科网</v>
+        <v>江阴广电网络</v>
       </c>
       <c r="H3" t="str">
         <v>-</v>
       </c>
       <c r="I3" t="str">
-        <v>不是药神是坑神！微商卖“网红神药”销售上千万</v>
+        <v>【广电高清 萌娃霸屏】晋级总决赛名单公布！</v>
       </c>
       <c r="J3" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=2cMXcs0yFgHEc3ZU8OEbProOVfiMBXZuch*jQzk3j62OS079YiGv9LACz37YvrhzD8c-LHTt-czEadqjWxM-t5wkzbOvep84jNjJokAIxCarvOhj0WPT3P84y0ERMkGr&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=y4RlMQ5kpMaxQiZp4aYt*tK8xIfF3q8ycDynEAke37xzDD1JyiTmGZXs8kgsssYnfCb8LwBafaNYJI216MECyLZ9MJdpH3-ivmSa5IScGQvBedzJXxDUXLQ92KSU57to&amp;new=1</v>
       </c>
       <c r="K3" t="str">
         <v>Tone</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C4" t="str">
         <v>日常Daily</v>
@@ -502,16 +502,16 @@
         <v>微信</v>
       </c>
       <c r="G4" t="str">
-        <v>净月新城市生活</v>
+        <v>天门国贸大厦</v>
       </c>
       <c r="H4" t="str">
         <v>-</v>
       </c>
       <c r="I4" t="str">
-        <v>消息｜省消协公布12款样品试验结果 图途、圣弗莱等8款品牌防晒服未达防紫外线标准</v>
+        <v>DS男装丨特惠风暴，全场买一送二！</v>
       </c>
       <c r="J4" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=E1aLA19xNVXiU1oR-Scs9M8AXXnycpnIqho6LkzwUBtoPiLwlE7lV6VUYQF4-rzEM7GEW39lLp0F0OXkbuNzYe05svAxv4513ozi924SdfWrdKWAWU7J2KiRzq7zidOa&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=ai3R0ZlMyaGKEUQgn4byoazOVH0t5OPufdXPsVmg4vIOq1DiuxEWPTowK4-X8e5sYuyfNORbD2yxc7DfBhHZ26SOfY27LQuT6ld5CtGgCsae5PZVY2bFmBa448crWJXV&amp;new=1</v>
       </c>
       <c r="K4" t="str">
         <v>Tone</v>
@@ -537,16 +537,16 @@
         <v>微信</v>
       </c>
       <c r="G5" t="str">
-        <v>鼎尚化妆造型美甲学校</v>
+        <v>DS足球网</v>
       </c>
       <c r="H5" t="str">
         <v>-</v>
       </c>
       <c r="I5" t="str">
-        <v>DS:七月再见，八月你好</v>
+        <v>DS足球星赛事推荐</v>
       </c>
       <c r="J5" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOsnK0zLBxNy*c9qJtqSqyTd8LBPQxKPC7E1lUNZF3Kzq-F6F5UqZ4yf4b6qZQJUDL9AgRm58oW9aWkNVhZE8gm2&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=6O6cpyisxIO*DDu*CF4ecTl7ORn1Knw0zuuSJjdo1iRwz1aHJEniuwNMA0vUlg547*0UFAX7vW9FPI3m4cpfCN7-tLIpZSUa5eN1lNsB7FVmTwWtTKL2eI4UXc21OJNj&amp;new=1</v>
       </c>
       <c r="K5" t="str">
         <v>Tone</v>
@@ -581,7 +581,7 @@
         <v>DS:死都画不好眼线？最全眼线教程来了！</v>
       </c>
       <c r="J6" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOsJhYTBaDiZYbq1o8YiIFw-pmq85C1n8la3f0PLf8kCIWXBNP13rp04RPavxup308NJMYlSWR0mL4okZj5OnyV4&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=cjOUFXvlaTdrHKMpZnGoeQy-rnH6Zp*hyQJsOnXKNo6i62R1LjxuRNQfoaJvPiC28umM7z5SoY3hIlvYdKt--d0oeVPv8DJYu6bJB6z8Uf2Z6JlZsSF7s0WmO-bW3G65&amp;new=1</v>
       </c>
       <c r="K6" t="str">
         <v>Tone</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C7" t="str">
         <v>日常Daily</v>
@@ -607,16 +607,16 @@
         <v>微信</v>
       </c>
       <c r="G7" t="str">
-        <v>山西谛艾斯汽车</v>
+        <v>鼎尚化妆造型美甲学校</v>
       </c>
       <c r="H7" t="str">
         <v>-</v>
       </c>
       <c r="I7" t="str">
-        <v>DS凡手触之处，诠释尊贵风范！</v>
+        <v>DS:七月再见，八月你好</v>
       </c>
       <c r="J7" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=dWIj3oSh1HdLe0y0vb9y67J8XIHoTyOe54hdm7PEUZAZtg0Vdof0a2rrtM-beol*pEHmaWuzQQGtaNL73lAYy-Ko*y7OYaJBRfaPGJvw4jnMctqfMot3qEY7tB-7kTIe&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=cjOUFXvlaTdrHKMpZnGoeQy-rnH6Zp*hyQJsOnXKNo5Yv6PmyxMs7g80DqmlIVR3ypVNtvSoBILpwCZegckKxotc4kyXGYZ-1mL6A9BGtsbc1fJoBeDy6SkUuC843cCV&amp;new=1</v>
       </c>
       <c r="K7" t="str">
         <v>Tone</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C8" t="str">
         <v>日常Daily</v>
@@ -642,16 +642,16 @@
         <v>微信</v>
       </c>
       <c r="G8" t="str">
-        <v>DS上海越也新天地</v>
+        <v>DS深圳经销商</v>
       </c>
       <c r="H8" t="str">
         <v>-</v>
       </c>
       <c r="I8" t="str">
-        <v>【DS爱车讲堂】夏季停车小技巧</v>
+        <v>DS美容文化节开始啦！集赞美容项目免费送，油漆翻新6折福利。</v>
       </c>
       <c r="J8" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=yS1w1emelLlpF1vI1q6rZHqMjoLZGiSDRu-h9ftcOSyGsvI-R6vjvy03YVY8FvU-qZ-cO2c*27vTaL0TsMJmklz*5Duo2a4XdHwbRfqQV5EDs-ACMQsBzijxUXxPEqwu&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=24btaBBRaxIbRRMlbWsWwBX7lhii0ilg-dL8g02wCFZX7PPO-AK-f9z5yks64MoKW7hEQFc3sCgjBV0OhCppTYKhjVF0LzwjafeUSnZ5ogdpEuLv6vhcMJ6ERSWxsDaR&amp;new=1</v>
       </c>
       <c r="K8" t="str">
         <v>Tone</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C9" t="str">
         <v>日常Daily</v>
@@ -677,16 +677,16 @@
         <v>微信</v>
       </c>
       <c r="G9" t="str">
-        <v>DanceStation</v>
+        <v>DS上海越也新天地</v>
       </c>
       <c r="H9" t="str">
         <v>-</v>
       </c>
       <c r="I9" t="str">
-        <v>DS. iDance舞蹈照片趣味评选（结果公示）</v>
+        <v>【DS爱车讲堂】汽车在烈日下暴晒 都会带来哪些危害</v>
       </c>
       <c r="J9" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=xlB1IcMstpCAyUmW8b9wSr16pS9FeuIF1QnZjvKOvijt2C4v-RFwmiEsEvDALgzP30h4qIwQ4k3yJ1iyWyehKCgwASFRBon7pnyHiY068jDzD0zS0MdRvsthgfb*a-CP&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=3UvL*z8jIqRBCKlJ31RJHh3RTPNz-obhwEx8QvN4t217HpzPNjXUbLttjIAI8ykdaL2AjFfUgHkriVnEELpuV2nV6yBobv2GGO2*AunVkTorybIJjcRQM8yJxuURFf-G&amp;new=1</v>
       </c>
       <c r="K9" t="str">
         <v>Tone</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C10" t="str">
         <v>日常Daily</v>
@@ -712,16 +712,16 @@
         <v>微信</v>
       </c>
       <c r="G10" t="str">
-        <v>DS足球网</v>
+        <v>拾点创夜谈</v>
       </c>
       <c r="H10" t="str">
         <v>-</v>
       </c>
       <c r="I10" t="str">
-        <v>DS足球星赛事推荐</v>
+        <v>创夜谈DS1479 ：每日优鲜总裁曾斌</v>
       </c>
       <c r="J10" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107495&amp;ver=1033&amp;signature=CuFM8niWWQAKjvboDHSoZaawZ*D0xw6qBAIulExKJcJUSHcR*x236aA69xyYVu0W5YcSln1vXuqPXhQuju-7Opohp5N6Lu0i2TPCNBtedUaJfChS3gcIqglKyPbLrlzg&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178108&amp;ver=1035&amp;signature=VWJnuujs8OY3PhKXZzxPdY9P6JpPtJaMaFBLKOwGglw7KYg96kXpfT0eY-7wnTEz650n-j*uYjIqq3Dm07Z2kxQdWUpmKZfwZTTwiiRoTK8XIPTEo0t2dCWOptCZjkXQ&amp;new=1</v>
       </c>
       <c r="K10" t="str">
         <v>Tone</v>
@@ -747,16 +747,16 @@
         <v>微信</v>
       </c>
       <c r="G11" t="str">
-        <v>DS深圳经销商</v>
+        <v>东盛娱乐会所</v>
       </c>
       <c r="H11" t="str">
         <v>-</v>
       </c>
       <c r="I11" t="str">
-        <v>DS美容文化节开始啦！集赞美容项目免费送，油漆翻新6折福利。</v>
+        <v>东盛 DS CLUB | 2018/08/11精彩属于我们，特别巨献《青梅竹马》原唱 @陈秋含</v>
       </c>
       <c r="J11" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=4oKaoJ4QSsuGUzXbfTA4f7oYKwtxQPU4WQ4rrxpg1xgB3N05VBVE8pXrS7Om*B8M88vLQTwWAYQpBe2ojZJf4AfrJBbQr*ciaskS4ZfIqXobHK989O4hWrnilcX48mOi&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=TKEKzNAg1oAYyPYTzTR4kO5zYDc6ea7aBJ8bcZhvfwM-pNGqRBMATg2djaR*HgSApZiZ7N8tvCbVEXgK*dwSSqmULIWNfkl3BXynW2mWzSHEYsYKOElHOD6CYcn6GUMF&amp;new=1</v>
       </c>
       <c r="K11" t="str">
         <v>Tone</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C12" t="str">
         <v>日常Daily</v>
@@ -782,16 +782,16 @@
         <v>微信</v>
       </c>
       <c r="G12" t="str">
-        <v>华林孝笑族创始人</v>
+        <v>DS南昌易达</v>
       </c>
       <c r="H12" t="str">
         <v>-</v>
       </c>
       <c r="I12" t="str">
-        <v>DS温补阳气、散除寒湿，正好克制宫寒！</v>
+        <v>【南昌易达】DS “土味情话”来袭，你被撩到了没？</v>
       </c>
       <c r="J12" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=IDQjWp*m46ONYNaJsQEsEv*H52qW9YByR2GS41swP6j98T3mgAB01tjXJedX3sGTuuEQPPzXVbYn3xPoO-rc7wvDp5ok-IeEMBoQH0VgQ0zBPs*LyYqE3VJsupaj7bIi&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=0qsjaXhdxiQNmxTIlsFVG7oOksBGGEnxbSabDmT8Y14H4iFNeRS4JT-M*rx9oyYZeSnO5kdKWqRaXZNK6c0kUo0Z86I13EA8Bgx6o8pv8K37wS*QX-NuwLnV7HV0ZiHZ&amp;new=1</v>
       </c>
       <c r="K12" t="str">
         <v>Tone</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C13" t="str">
         <v>日常Daily</v>
@@ -817,16 +817,16 @@
         <v>微信</v>
       </c>
       <c r="G13" t="str">
-        <v>DS上海越也新天地</v>
+        <v>东盛娱乐会所</v>
       </c>
       <c r="H13" t="str">
         <v>-</v>
       </c>
       <c r="I13" t="str">
-        <v>跟着DS 7一起运动起来</v>
+        <v>东盛DS CLUB丨军魂燃 · 致敬中国人民解放军，庆祝建军91周年！</v>
       </c>
       <c r="J13" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=yS1w1emelLlpF1vI1q6rZHqMjoLZGiSDRu-h9ftcOSxWw1tkjAXJpcK3PUF8y9Yla3jERvLhJhMKoISF3x00DoN92hFf8ySGbEW4fVTybiyJj43au3BevB7oeuFSe0yC&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=TKEKzNAg1oAYyPYTzTR4kO5zYDc6ea7aBJ8bcZhvfwMImXDLmBrcCoUI6OaWecicDjP9QtknexTueNpEQJVXh15IByuGs-vWh3OBCCCQ0ySSZHonzpUvyQitWPkrcFy9&amp;new=1</v>
       </c>
       <c r="K13" t="str">
         <v>Tone</v>
@@ -852,16 +852,16 @@
         <v>微信</v>
       </c>
       <c r="G14" t="str">
-        <v>DS百科网</v>
+        <v>COBOL高宝</v>
       </c>
       <c r="H14" t="str">
         <v>-</v>
       </c>
       <c r="I14" t="str">
-        <v>传闻这家获牌企业将直销牌照和地皮打包卖了</v>
+        <v>【高宝新品】DS2230色带架火热上市，欢迎订购！</v>
       </c>
       <c r="J14" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=2cMXcs0yFgHEc3ZU8OEbProOVfiMBXZuch*jQzk3j624YyfiB-VgrcGOvm73vgh4DKdxljiNg-CbiP9X5qRvRF*OTa8vDbewSdbhqO4diWOQ8x-IAHj-ibftcUkI4Xmb&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=eovQytflYL2JipGiaNhR3EMxlqw6GdZAFxbtNenos4c4az5FtE9Ks7WDN09gs6DuJ-ZkvGUdqsMMsRB-UqK3otLdsOCtcSdQsHqb3D8e9wD6RAMf1CStMXVUkOPxPTvL&amp;new=1</v>
       </c>
       <c r="K14" t="str">
         <v>Tone</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C15" t="str">
         <v>日常Daily</v>
@@ -887,16 +887,16 @@
         <v>微信</v>
       </c>
       <c r="G15" t="str">
-        <v>鼎尚化妆造型美甲学校</v>
+        <v>DS安徽合和</v>
       </c>
       <c r="H15" t="str">
         <v>-</v>
       </c>
       <c r="I15" t="str">
-        <v>DS:感恩之心离成功和财富最近！</v>
+        <v>备战FE新赛季，DS携两位新伙伴报到！</v>
       </c>
       <c r="J15" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOvwR*KRghO1lmlIAF0lhOO8dvm*J4B5PANzmwMWDPA72LffQWljGlUVnuX574Kbezl5VqfHXYXRj*IOegMDCfnM&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=Vn1NEVERdRkHxfWdPctsYRWz5*C3UpNtWrTyaJybVH3qIjDphUjo7onH6F6gP6ciYSPWw1CjdomKxU7Pxwmpc7AA9Si8GbeH6PAEgx3icoP01S0cdmBFtYZkOBtuEioB&amp;new=1</v>
       </c>
       <c r="K15" t="str">
         <v>Tone</v>
@@ -922,16 +922,16 @@
         <v>微信</v>
       </c>
       <c r="G16" t="str">
-        <v>鼎尚化妆造型美甲学校</v>
+        <v>JNR合肥金脑人</v>
       </c>
       <c r="H16" t="str">
         <v>-</v>
       </c>
       <c r="I16" t="str">
-        <v>DS：鼎尚化妆职业培训学校招生中</v>
+        <v>【JNR产品介绍】DS-200动物专用多普勒血压计</v>
       </c>
       <c r="J16" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOuXBdSgRv01MMBKSfNxm2uU1SVcDUB9Z0ePI3EO7vlBn7XS6*5-z4Wt*cYRyDt5obMg-6tlQ*Ygiz6UxFp1mlqH&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=nD9Egrr7h2dMGFc5T7yjqjASwQw4EkTXL-ovNGt8AweyAJWU1OkZTykH6L785Ryn1mO2Ktof5fws*3549-ugSl8pFr8ICVVyxqEKe7qWMS0XgFS0iBER413Hf7Ur*eDG&amp;new=1</v>
       </c>
       <c r="K16" t="str">
         <v>Tone</v>
@@ -957,16 +957,16 @@
         <v>微信</v>
       </c>
       <c r="G17" t="str">
-        <v>鼎尚化妆造型美甲学校</v>
+        <v>DS深圳经销商</v>
       </c>
       <c r="H17" t="str">
         <v>-</v>
       </c>
       <c r="I17" t="str">
-        <v>DS:来鼎尚学成千上万的美甲图案，招生中</v>
+        <v>不用花一分钱 可体验法国总统座驾DS专属接送服务</v>
       </c>
       <c r="J17" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOvpGYXfGChtL9DxUhhd9aKRbcCMCXk2WuDfFFgkBkCRgaLy5ENHpddvZKpSZ0MdEu2E1vlrasSnitWTRCJRKM6v&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=24btaBBRaxIbRRMlbWsWwBX7lhii0ilg-dL8g02wCFaWYsEAxlkr9dahcdxbwQhsNevvtb5mlLv41*GEpC5GKSHi-LMpdSDEbyvNhjitZyG-0LcIpWx7kR5WDqMCWar2&amp;new=1</v>
       </c>
       <c r="K17" t="str">
         <v>Tone</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C18" t="str">
         <v>日常Daily</v>
@@ -998,10 +998,10 @@
         <v>-</v>
       </c>
       <c r="I18" t="str">
-        <v>DS:有斑的脸不要谈素颜</v>
+        <v>DS：鼎尚化妆职业培训学校招生中</v>
       </c>
       <c r="J18" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOsO-lbAn*57A2uafSEgd01k-tAKD1uGYvUPm17pHfhZfKBB4gfiQt28o*dgklpN0BJE7hQA1dt2MD0AB7vK7Fox&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=cjOUFXvlaTdrHKMpZnGoeQy-rnH6Zp*hyQJsOnXKNo7Q02c*YLLQDEVd2SkE*LW1NOyRUYKYI3aV8sJwH8qP4LqSQwfoVKbSMaFuBOM25wa6dxjmG4y9We4HIWkFkR7o&amp;new=1</v>
       </c>
       <c r="K18" t="str">
         <v>Tone</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C19" t="str">
         <v>日常Daily</v>
@@ -1033,10 +1033,10 @@
         <v>-</v>
       </c>
       <c r="I19" t="str">
-        <v>DS:August！广州之行邀您一起！</v>
+        <v>DS:来鼎尚学成千上万的美甲图案，招生中</v>
       </c>
       <c r="J19" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOvMGXUawGt6aGMHPL4kvHITfZZn7MEQJc0WaLq5vwD0oKE31MdzjN93wdPOUPuw3bo8BxtZRWEl0s6exWoO2AKT&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=cjOUFXvlaTdrHKMpZnGoeQy-rnH6Zp*hyQJsOnXKNo6iochgSrLWTxEeisgV-7aItIHLWx8gdjzVutPtMAczqUG-voNoagwVUOv1KRZxIL3ubLOQkBxbz-DaXXCGUgGo&amp;new=1</v>
       </c>
       <c r="K19" t="str">
         <v>Tone</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C20" t="str">
         <v>日常Daily</v>
@@ -1062,16 +1062,16 @@
         <v>微信</v>
       </c>
       <c r="G20" t="str">
-        <v>鼎尚化妆造型美甲学校</v>
+        <v>山西谛艾斯汽车</v>
       </c>
       <c r="H20" t="str">
         <v>-</v>
       </c>
       <c r="I20" t="str">
-        <v>DS:不要再蓬头散发去上班了，这四款简单漂亮的OL扎发赶紧学起来！</v>
+        <v>备战FE新赛季，DS携两位新伙伴报到！</v>
       </c>
       <c r="J20" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107535&amp;ver=1033&amp;signature=0oXRUDLVMzl9xK5k*kbRgAOWBAQ2lJtwWrd*KqfZkOutqb4kk*ZoFmU6vxWi8H9TQquzqohNOFNodlZU7wrQkxA8z1ygTIFHC6Z-Nc4YXQwnRKXptJJzM-85MajC1gal&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178148&amp;ver=1035&amp;signature=3WufE6*MJhbyL8YuoAXP2LXe-AQ2asyN49KtBrBtH7-155GQfaqDrD7XWhnGkAK2PFpiyJf66aHhDWRlB0SnB86zvyOTZtbdNqWNbUP2ZTI7PlFJ5igBdrwXLL6JiuFx&amp;new=1</v>
       </c>
       <c r="K20" t="str">
         <v>Tone</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C21" t="str">
         <v>日常Daily</v>
@@ -1097,16 +1097,16 @@
         <v>微信</v>
       </c>
       <c r="G21" t="str">
-        <v>DS精神</v>
+        <v>点石文具</v>
       </c>
       <c r="H21" t="str">
         <v>-</v>
       </c>
       <c r="I21" t="str">
-        <v>备战FE新赛季，DS携两位新伙伴报到！</v>
+        <v>【点石新品预告】DS-0109 “转运药”速干按动全针管中性笔，要转运！</v>
       </c>
       <c r="J21" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=87Wfz2iUXfntnZFEbNlXSszwM-KOqIWbW*HfkHm1-IWuYWGetlFdk-C4LGUnQJwmBLNz03liGkTr1g5EjLGkbJQL6ZJyP41WLE-epdvq22ZeHI7Hy7hqd9xJnc6xlldE&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=kRQc8oWjw4ld5eUdoIzZ9-P7Yvc153n2XqouA7lqBnp-7eR7WOxF-XaIZgjk2eNn2yz4lBweWY6svjYsKghLC0vYPqX3DTeWq6Pc4IUtkyJBlWWn3APMySGub7hT1mt4&amp;new=1</v>
       </c>
       <c r="K21" t="str">
         <v>Tone</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C22" t="str">
         <v>日常Daily</v>
@@ -1132,16 +1132,16 @@
         <v>微信</v>
       </c>
       <c r="G22" t="str">
-        <v>拾点创夜谈</v>
+        <v>中以云南创新</v>
       </c>
       <c r="H22" t="str">
         <v>-</v>
       </c>
       <c r="I22" t="str">
-        <v>创夜谈DS1488：阿里巴巴集团合伙人曾鸣</v>
+        <v>Playtika收购以色列人工智能公司DS and DE Lab</v>
       </c>
       <c r="J22" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=SAbc6ABUYZZrO4tWSbru18l5aI0PIRpvwjGd-bL2UMZQzLBySK*e6ZXHizRcjuMcKASN*4fu1MgFIhhnJy3uwNJF*SkVZ2fbXO-Nxq61Pp4EHCLyelQte5mZZvWOEA-k&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=N43xaXDMNTn7LGKDyG9Q30gYr7uOW7zv2nbQZbSqWtW6W0QJli2FnP3J-t6xP7zmUTiuNgTJ5YGhKQWwZbdWLXCoKqqIpqmLYYLlGtttTLj0rKeeniQY6HhZNMGkMI0C&amp;new=1</v>
       </c>
       <c r="K22" t="str">
         <v>Tone</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C23" t="str">
         <v>日常Daily</v>
@@ -1167,16 +1167,16 @@
         <v>微信</v>
       </c>
       <c r="G23" t="str">
-        <v>BitTiger</v>
+        <v>云以商务</v>
       </c>
       <c r="H23" t="str">
         <v>-</v>
       </c>
       <c r="I23" t="str">
-        <v>今日捷报：DS501学员，斩获Samsung实习Offer！</v>
+        <v>Playtika收购以色列人工智能公司DS and DE Lab</v>
       </c>
       <c r="J23" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=2jxJ0VgG*x8nANYZvsKih0yiOZMA10rpW5L7mSJdbF5Zm0tCYsyhoxBj3pit7NZep-yaPuftXJI5Tc39qLfoZfSm0Vuygpbwc8BNZG3DB434N2hjeImcjrc*G0Spymy2&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=o8LAJ6O3qVyw5xAETb0SQtRvCzW8stMDI7isQQm0EZKwW8ACNi6ezsJrajD3XyvB90DU47LEKxKKhEMTDUGj2uYEk*b*vyZjajYuTJiZdJ3ZdbF1xOIsFrWb1IMgWSzN&amp;new=1</v>
       </c>
       <c r="K23" t="str">
         <v>Tone</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C24" t="str">
         <v>日常Daily</v>
@@ -1202,16 +1202,16 @@
         <v>微信</v>
       </c>
       <c r="G24" t="str">
-        <v>哈尔滨修禾科技发展有限公司</v>
+        <v>VincentHawk留学求职</v>
       </c>
       <c r="H24" t="str">
         <v>-</v>
       </c>
       <c r="I24" t="str">
-        <v>爱普生 DS-50000 A3 大幅面文档管理专家</v>
+        <v>【线上 •本周理工讲座】斯坦福数学PhD、CMU DS、机器学习及CMU ETC游戏设计项目</v>
       </c>
       <c r="J24" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=-Zag3khWFb6mDaZSpyXF1Kjz1SFhezd8Fd*lHh77-o1F9dA*Te8xTvwd6sHOb1Ben7g0uZ4HO0cE80vFDCReDaTlMp-6GLI8tOLj9LvQoe9jZOv6vEDI7kJhriXswO8X&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=JBwEPIT6Hw15A9vSqnOXZD9NvLM6uJ*nTwd-C83TpngulGw1mJXydsNYw-JBs62i*y038VB1kcXJ4FuzWxnkBekH04zavny8KPwoiqTdnZnP-nBl0hfNNHksInAxuk2b&amp;new=1</v>
       </c>
       <c r="K24" t="str">
         <v>Tone</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C25" t="str">
         <v>日常Daily</v>
@@ -1237,16 +1237,16 @@
         <v>微信</v>
       </c>
       <c r="G25" t="str">
-        <v>DS授权经销商烟台佰利达品鉴中心</v>
+        <v>上财微生活</v>
       </c>
       <c r="H25" t="str">
         <v>-</v>
       </c>
       <c r="I25" t="str">
-        <v>【最后一天】烟台佰利达DS续保有惊喜！</v>
+        <v>【线上 •本周专场】斯坦福数学PhD、CMU DS、牛津金融经济、政治学PhD、机器学习及CMU ETC游戏设计项目</v>
       </c>
       <c r="J25" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=uaF50T-6vdBwUsCMvxWSV4jPH3KiFhmzcXPgQ45ghvIt6*-W9*t8mD0a7rtNwJrbyWeSfmukw5-amil5E-heU5dlD2WfD6zp*Jjvje2bJvgvskx4r5Voqm8nrTn92lGk&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=K1cDUheEbfIVX5RQwE-A1C-RxGt*sS3lPW0dAi9r6jxuHUVrRZHDF6ofE4qiIdec1geIZ3K3gYXtYyhUJTCSIcN2Fsb4d*4QBLoZh1wUyJkUNCO7O1B56olJatJmjjwo&amp;new=1</v>
       </c>
       <c r="K25" t="str">
         <v>Tone</v>
@@ -1272,16 +1272,16 @@
         <v>微信</v>
       </c>
       <c r="G26" t="str">
-        <v>COBOL高宝</v>
+        <v>纽约华人资讯网</v>
       </c>
       <c r="H26" t="str">
         <v>-</v>
       </c>
       <c r="I26" t="str">
-        <v>【高宝新品】DS2230色带架火热上市，欢迎订购！</v>
+        <v>如何放弃美国公民？</v>
       </c>
       <c r="J26" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=IIghAEKWJRSMlkjeAOiqNEoITz1RuSA*quIuRDVDlE2lEzTDBHmSbu2rIjfZvl50xOecDb6lxtWObPX1o0q0Pra7aVh39o-BhpQqocC597n4E2S9G-PCuwWqtlrPW7-3&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=O*hti9EHisXlPNtnp7WWkJYZymQ5CoNkpQriy0td-ERddNcTmYkWS4tmvyaqwaQEpHRRZqnAo*j0ZzVReHYvfOVa1DtlIo4AULY0tNOlq7ndpL0VZkxvq0JGqSDr42ui&amp;new=1</v>
       </c>
       <c r="K26" t="str">
         <v>Tone</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="27">
       <c r="B27" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C27" t="str">
         <v>日常Daily</v>
@@ -1307,16 +1307,16 @@
         <v>微信</v>
       </c>
       <c r="G27" t="str">
-        <v>DS南昌易达</v>
+        <v>旧金山华人资讯网</v>
       </c>
       <c r="H27" t="str">
         <v>-</v>
       </c>
       <c r="I27" t="str">
-        <v>走进《中餐厅2》官方指定座驾 了解DS的前世今生</v>
+        <v>如何放弃美国公民？</v>
       </c>
       <c r="J27" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=b2dypon6vVoLkpYbl*6ZkNFErDoEd9uU9ZXFIPNGmixLu*U7rx5MSE4et-my2ltI3xhtoN9BuQefha-tNwpZfmAwyMKn8mmivJsb3qNWWioWbClIvd-iEfVEVP3fBCWG&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=7u*89GVd7qnJWKSFN0jQW-F6GKohoqqAcmkbcOYRy3-74XQrzwcHmrw5I*GO28NG*rWkixZPZnqXTYppsTf8Pvz5S792W6uxf-W46bD3BiN-eXfe76UFTQ8ArRgoetY1&amp;new=1</v>
       </c>
       <c r="K27" t="str">
         <v>Tone</v>
@@ -1342,16 +1342,16 @@
         <v>微信</v>
       </c>
       <c r="G28" t="str">
-        <v>DS安徽合和</v>
+        <v>DSstudio</v>
       </c>
       <c r="H28" t="str">
         <v>-</v>
       </c>
       <c r="I28" t="str">
-        <v>备战FE新赛季，DS携两位新伙伴报到！</v>
+        <v>【可预定】魔盒工坊 私人定制热带龙菊草叶小卡比兽</v>
       </c>
       <c r="J28" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=nneZHMD6xiL16j-UdvOr-2fxxjrunkSJZCXLgkC*g37FTQw7Qs2s7**Ln2O3bXMoQskVEqivia*6Bg3p5qB18PCGbw6ZWAiS4ZSWNG7*xb1LQOZzfPumNqwX8XNFx9hP&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=2kpI*BpU1RnV5X5205JniWSElVZZewtYRlxBdeMr6WOVKq1bRP26ACEvR*JmOR-YgJh6pyvwzPrpEhJIZjHH3i0MxPyIisj458bipFV-rXAj*EGbohDV07NpHd3HPOgO&amp;new=1</v>
       </c>
       <c r="K28" t="str">
         <v>Tone</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C29" t="str">
         <v>日常Daily</v>
@@ -1377,16 +1377,16 @@
         <v>微信</v>
       </c>
       <c r="G29" t="str">
-        <v>中华百货</v>
+        <v>DS安徽合和</v>
       </c>
       <c r="H29" t="str">
         <v>-</v>
       </c>
       <c r="I29" t="str">
-        <v>【中华百货】DS德式生活——来自欧洲的婴童日用品，低至25元/件</v>
+        <v>中餐厅版土味情话</v>
       </c>
       <c r="J29" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=o--eI*23pOQQ-2E0c2L-cVXBs8TYLHhRwl8AN6hlTcMLlzZ52xZTBZ7s1SQPWtIEOIqN*fAvVSqA7udpQKa42F-SkzDO23jCrzENRoL6DRgrNsZmWgoek9kRsY*t21CC&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=Vn1NEVERdRkHxfWdPctsYRWz5*C3UpNtWrTyaJybVH27nOkNbS3TMHRmJ7oZKo495rmB*vcXg93bG4tJyKD6jGbbW4xhjwQ9C7itaSeKkIqQLE4F60pk2F5etzQ50EIf&amp;new=1</v>
       </c>
       <c r="K29" t="str">
         <v>Tone</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="30">
       <c r="B30" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C30" t="str">
         <v>日常Daily</v>
@@ -1412,16 +1412,16 @@
         <v>微信</v>
       </c>
       <c r="G30" t="str">
-        <v>山西谛艾斯汽车</v>
+        <v>当代景观设计公司</v>
       </c>
       <c r="H30" t="str">
         <v>-</v>
       </c>
       <c r="I30" t="str">
-        <v>再有人问你为什么买DS 4S，就把这条微信甩给它看！</v>
+        <v>一张素雅的“飞毯”，城市广场也可以很动感</v>
       </c>
       <c r="J30" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107578&amp;ver=1033&amp;signature=dWIj3oSh1HdLe0y0vb9y67J8XIHoTyOe54hdm7PEUZDG6my5WQAbMDfa2yPM3GXwSZrzDs7Vrfhg7-9afoVcuHPyg4VeuDFxwj-WBut5-K7LVaB0ltqk929gDBmaCCIj&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178192&amp;ver=1035&amp;signature=gKjl-GEiaW*olnvhxbwosp73EIF68QSzU8fBMIOEx7OmrsQIQqGtSNEyOHXlYlqMQCDWH6x4LoOZohpmJWK7YI4Op7ygPQ85IitdPGNlxFS8brCR0sYvWmx0qxni*L6A&amp;new=1</v>
       </c>
       <c r="K30" t="str">
         <v>Tone</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C31" t="str">
         <v>日常Daily</v>
@@ -1447,16 +1447,16 @@
         <v>微信</v>
       </c>
       <c r="G31" t="str">
-        <v>山西谛艾斯汽车</v>
+        <v>车少话车</v>
       </c>
       <c r="H31" t="str">
         <v>-</v>
       </c>
       <c r="I31" t="str">
-        <v>再有人问你为什么买DS 4S，就把这条微信甩给它看！</v>
+        <v>法国车还有没有救？试法国总统座驾-DS7</v>
       </c>
       <c r="J31" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=dWIj3oSh1HdLe0y0vb9y67J8XIHoTyOe54hdm7PEUZDG6my5WQAbMDfa2yPM3GXwH3aUerKpVnh5teMcTdwYCRfDrYj5i6HFuoin7SzcavSZ2ApwQpLirYq7Mc*PMgTX&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=CAga*HLHt-6DGE6Et1bC2WUxoNhauQ1TQ2j8h5-l1qvxZtZVKXJGTuDPOnaQ47jkGl2u08F1wBZyfJ3zn2W0WvqEAGaKQXBh-BISCUV61aDUNJiwfVMnzi-D7s7v5G1g&amp;new=1</v>
       </c>
       <c r="K31" t="str">
         <v>Tone</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C32" t="str">
         <v>日常Daily</v>
@@ -1482,16 +1482,16 @@
         <v>微信</v>
       </c>
       <c r="G32" t="str">
-        <v>点石文具</v>
+        <v>海康经销</v>
       </c>
       <c r="H32" t="str">
         <v>-</v>
       </c>
       <c r="I32" t="str">
-        <v>【点石新品预告】DS-1017“2支装”全针管中性替芯</v>
+        <v>新品发布丨听说L2智能锁也有联网版了？</v>
       </c>
       <c r="J32" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=lIFwj9*kE6osLQQRcZQQP7vmVZIdG3Ut2tWFIUqBBCDJ5*HQnE73OXGE1XX*tl9SvQFWyKVEFTQ564frREromFtjuJe5Y60WxaVdM4zBbU0saSWjfIny4A4AG*KYf50l&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=0oSOptr9lPjcZb3n5ubXSXe9iunrA1ME7BO*wzwYT83v1pgVbx1Ndh*8gZYfvEQbUCQhrz-LFKe7AqpK1HpINrQNshqWt44Iz9RMLMt5ny08rmiENuVMeTow4KhnQpdV&amp;new=1</v>
       </c>
       <c r="K32" t="str">
         <v>Tone</v>
@@ -1517,16 +1517,16 @@
         <v>微信</v>
       </c>
       <c r="G33" t="str">
-        <v>DS深圳经销商</v>
+        <v>每日文摘报刊</v>
       </c>
       <c r="H33" t="str">
         <v>-</v>
       </c>
       <c r="I33" t="str">
-        <v>不用花一分钱 可体验法国总统座驾DS专属接送服务</v>
+        <v>又一款豪车大降价，跟沃尔沃一样安全环保，2.7米轴距顶配才20万</v>
       </c>
       <c r="J33" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=4oKaoJ4QSsuGUzXbfTA4f7oYKwtxQPU4WQ4rrxpg1xhYmh2hx54LtxM5r5YKEvSjKAk-b2-9h7qo5nxFQ2hegAH826fXkmA1oH46eA*S246HX*arr4V6SxXAgvUx4JU3&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=Uu36mQaq6v*Qkl7JlSnP2GwbqoHKoHxkvlqUpi3iIKAzLA42eOkaexsxP44DbCmEmZaDlTRLGvoTmbfBw-jhhLl3oPtrZBwgqSm*3oanNVvWsGaMLejod1WeTsbnzEK0&amp;new=1</v>
       </c>
       <c r="K33" t="str">
         <v>Tone</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C34" t="str">
         <v>日常Daily</v>
@@ -1552,16 +1552,16 @@
         <v>微信</v>
       </c>
       <c r="G34" t="str">
-        <v>NicheFuture</v>
+        <v>DS安徽合和</v>
       </c>
       <c r="H34" t="str">
         <v>-</v>
       </c>
       <c r="I34" t="str">
-        <v>丢skr人了，DS专业还不懂这些</v>
+        <v>中餐厅 | 最新宣传片上线</v>
       </c>
       <c r="J34" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=ENirv8sZNoMrcO5aRNEv*MvNAZLjIEfMeuESJ9-b2Quh2lHiSu7ZuALvU1JfPmeDuZbtSujBIyZvXvqxmiQr31dR22QH8tXWOZrLKdAen1gf1-xostbffzFeS*pj*XVp&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=Vn1NEVERdRkHxfWdPctsYRWz5*C3UpNtWrTyaJybVH0OCT-7U3LuIExSkyoRdqujh3OIPkwfMLT8jLh21Xhdlqi9cMZUAnEBp8fBJZYQZxGEnlykcEEvfDFB1BcWkpR4&amp;new=1</v>
       </c>
       <c r="K34" t="str">
         <v>Tone</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C35" t="str">
         <v>日常Daily</v>
@@ -1587,16 +1587,16 @@
         <v>微信</v>
       </c>
       <c r="G35" t="str">
-        <v>书戈看车</v>
+        <v>DS授权经销商烟台佰利达品鉴中心</v>
       </c>
       <c r="H35" t="str">
         <v>-</v>
       </c>
       <c r="I35" t="str">
-        <v>品牌走下坡路期间推出旗舰车型，DS南辕北辙应为DS7负最大责任</v>
+        <v>DS7"千里赏荷逛古城”自驾游招募中</v>
       </c>
       <c r="J35" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=ci75iMy5ThvgGyd-SuZZ*hBrKVd*Xezcv6OUKT4n0P7BkAmp7yWHBNH-KePfvPKva3ee2-q-iUsAQuWYZejEUUWX*iN1g*mlvP3hlQ3Cy8uL0wH8B5FNEWS3rLj8P3Jg&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=FcjnZR0bdK038qWhs7oPVjgWITIrTe8X42L6Os7HrVwUWu51FZ52zMrqQPNsBaWHGEvRopYNdiS1u4cZvT-RgG9Kvln8IJs0UG0Tke-QCiLtY1MN2s*HvTuJbxVLt6BQ&amp;new=1</v>
       </c>
       <c r="K35" t="str">
         <v>Tone</v>
@@ -1622,16 +1622,16 @@
         <v>微信</v>
       </c>
       <c r="G36" t="str">
-        <v>点石文具</v>
+        <v>汽车制造网</v>
       </c>
       <c r="H36" t="str">
         <v>-</v>
       </c>
       <c r="I36" t="str">
-        <v>【点石新品预告】DS-0109 “转运药”速干按动全针管中性笔，要转运！</v>
+        <v>177台机器人，100%自动化，精度0.5mm保证法国总统座驾</v>
       </c>
       <c r="J36" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=lIFwj9*kE6osLQQRcZQQP7vmVZIdG3Ut2tWFIUqBBCC*XAsIkDk06wADpd0nomLNeUrBHEa-Lq6eh5PhMzuV33n*Xarmmr4589AW5FrdIczRododPRM1X2tVCpirXzw6&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=7NhzRDNvOMAh01meuFN72byiKSw9g16U4KT*1F7OpXIftbI9sBW8FVYv6EZHG5F58d*jRzQ7SwfT8QsSKj*0*tyi8IZ9n-x2sWohXBVLWLhG6StyCZaTI-bBBzcMzb9L&amp;new=1</v>
       </c>
       <c r="K36" t="str">
         <v>Tone</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C37" t="str">
         <v>日常Daily</v>
@@ -1657,16 +1657,16 @@
         <v>微信</v>
       </c>
       <c r="G37" t="str">
-        <v>VincentHawk留学求职</v>
+        <v>山西谛艾斯汽车</v>
       </c>
       <c r="H37" t="str">
         <v>-</v>
       </c>
       <c r="I37" t="str">
-        <v>【线上•周三理科讲座】CMU DS大神和你分享数据科学项目申请以及就业求职，斯坦福数学PhD教你早作规划锁定顶尖数学项目</v>
+        <v>速度，是纵横前路的不变信条!</v>
       </c>
       <c r="J37" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=Ts*ak11h0UL7FGHQlOKVChEDD51InDPkb1HVRdIidHoEYZrdBcdaWT*4NJ*f3tNqju5L-atPBl5SvVcKReosRXH1TzO82jdqKYZEyjTToynwZ-VFheINhpdwknASP0ef&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=3WufE6*MJhbyL8YuoAXP2LXe-AQ2asyN49KtBrBtH78LYs4ureYnsMjGMB5JXEBLG7SioHpFGR9UsdudgtcB8KiwH6SwCbWJKh5kMEhTeuw3K7pOvOnCRivUo1IS35Bq&amp;new=1</v>
       </c>
       <c r="K37" t="str">
         <v>Tone</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="38">
       <c r="B38" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C38" t="str">
         <v>日常Daily</v>
@@ -1692,16 +1692,16 @@
         <v>微信</v>
       </c>
       <c r="G38" t="str">
-        <v>冠县都市网</v>
+        <v>星环科技</v>
       </c>
       <c r="H38" t="str">
         <v>-</v>
       </c>
       <c r="I38" t="str">
-        <v>冠县商家网 - vip.0635ds.com简介</v>
+        <v>向最可爱的他们致敬！</v>
       </c>
       <c r="J38" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=4iSKCIMT6COhEHtmtQZPMCht1oV5tw4DtKlbcf*tx4nGRv0ER7N*R*v73UNvxdddBq*Hz6lItvqegBZAa0cz1prE4HwwhZUogYQSKzwRJz0PHU*Pvd1nk4P74I0bbDIx&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=6B7n1zMW0qCAQf2SxpWx9luFVY49BHidOpsAzX0PvuyWhkjZH*C*96LGhsQXMqH1bfLkQhcySg7zzsrBu-idU3*1i7VTwrCDBNbXB9nQ4npUJsKB6us5HFd1QBJ6xTn0&amp;new=1</v>
       </c>
       <c r="K38" t="str">
         <v>Tone</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="39">
       <c r="B39" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C39" t="str">
         <v>日常Daily</v>
@@ -1727,16 +1727,16 @@
         <v>微信</v>
       </c>
       <c r="G39" t="str">
-        <v>车团</v>
+        <v>全国3D大赛</v>
       </c>
       <c r="H39" t="str">
         <v>-</v>
       </c>
       <c r="I39" t="str">
-        <v>上半年销量最差劲的八款车型，铃木占榜两款，DS垫底！</v>
+        <v>3D大赛|审核未通过的作品，我该怎么办？</v>
       </c>
       <c r="J39" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=jN-shhe7iz9Hxc82b4VSdZ8UJJF85rxQ1o8X2GwpBXwNKXdkB6j3*snw4uL5Z3urRLiDo-AXp*XoTSw5P1XqWZGNQxWEZ5f5SbWNpNFTg1l5PEP6hHFjFKxmfzC3Vt7i&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=DMrxYjPOTqVEWU1JszW0ZQ*GcOU6MfsxyBX7gXVS8Pc2vsJdehgVUffT*QUgRs3Pi8cgHoh9REAbnqD1vWhnoZL2e-VYQyZ4ymzoozAW1tqiAsslYKFwAfW6kONf-NlC&amp;new=1</v>
       </c>
       <c r="K39" t="str">
         <v>Tone</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="40">
       <c r="B40" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C40" t="str">
         <v>日常Daily</v>
@@ -1762,16 +1762,16 @@
         <v>微信</v>
       </c>
       <c r="G40" t="str">
-        <v>上海锐特</v>
+        <v>深圳肯帝亚地板</v>
       </c>
       <c r="H40" t="str">
         <v>-</v>
       </c>
       <c r="I40" t="str">
-        <v>原创摄影：看着就舒服的足球鞋 ASICS DS LIGHT 3</v>
+        <v>大尺寸地板流行起来了，挡都挡不住......</v>
       </c>
       <c r="J40" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107622&amp;ver=1033&amp;signature=RtGG8RwQFelvdpLSakeq0K8KoHYpYNj2ZtEnKhn-jSZOnymQDT*9vBxAHacxYTTdI--is01N8kUIMI8WvX5MOuz*KsuDBdeMEwNieerev4A0nq4xcENeW-Wk3npiSiTj&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178235&amp;ver=1035&amp;signature=7zIMPmEvSo-Q8VplXakiYnIbhGF-aRW709zsWrA3xG9wzeE*quLgjWlPX0GMnPPnjPc0qbVXVp1SYPLbFnZ2j-URsWnmvebicZcT6kuDl9Lh0Ty*9G7bTc7MNNSRPEta&amp;new=1</v>
       </c>
       <c r="K40" t="str">
         <v>Tone</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="41">
       <c r="B41" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C41" t="str">
         <v>日常Daily</v>
@@ -1797,16 +1797,16 @@
         <v>微信</v>
       </c>
       <c r="G41" t="str">
-        <v>BOOT电子竞技俱乐部</v>
+        <v>东尚木业</v>
       </c>
       <c r="H41" t="str">
         <v>-</v>
       </c>
       <c r="I41" t="str">
-        <v>【CSGO】IEM上海站明日开战，BOOT.ds准备好了！</v>
+        <v>东尚2018年第二季度优秀员工表彰大会！</v>
       </c>
       <c r="J41" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=kIeZCMRD*tWJFCufa95G*qIcfp1AHMyFlK0w15L8IIvTZ96kmaZqOo3EH386sM0VICdolEQVswA1hGzYbBAOt2vExFT*URdY9bipSlYis5YHqnuYqDx5*lenAPbWI5*y&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=JCptaxfevJzwNbHFK*yAE00BxLYRA8amjH6IYOca50Crts7Hz8ylGjfKHwr9Ci*-efCaEgsWwA*LLJcK2ia-fme8PTjdAZfGYfJ22TAkIizt6akgS50ICfIPo4yGj4Pk&amp;new=1</v>
       </c>
       <c r="K41" t="str">
         <v>Tone</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="42">
       <c r="B42" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C42" t="str">
         <v>日常Daily</v>
@@ -1832,16 +1832,16 @@
         <v>微信</v>
       </c>
       <c r="G42" t="str">
-        <v>太原新语盟外语培训学校</v>
+        <v>热处理生态圈</v>
       </c>
       <c r="H42" t="str">
         <v>-</v>
       </c>
       <c r="I42" t="str">
-        <v>【太原新语盟GMAT】GMAT数学题型解题思路实例点评 数据充分DS题这么做才能保证正确率</v>
+        <v>如何做好槽类零件感应淬火？</v>
       </c>
       <c r="J42" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=sb9ccMo*Cd5IbAZhrI99DRRDgmvpJFsHO1fxQSR1*qyfNr3DrNq6Z-4JTuMeBynDasbHyrvN99SG08*WApmQ1-rJwLLLDK3he2aAhqVTtHf0hfDlR61pDCylnjxjpFp9&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=ZQcv55PhBSh1KJjhA8KEQojWgNbWFJfpdiOHkDmkpTRyfuDGA836ai01NP6-yCgQQwa*eupQfvbL1RGbIS9zTYQRPFdMkxDVDn7TnrsNzeGGsMskPgvrKWzfcnxDMIeJ&amp;new=1</v>
       </c>
       <c r="K42" t="str">
         <v>Tone</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="43">
       <c r="B43" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C43" t="str">
         <v>日常Daily</v>
@@ -1867,16 +1867,16 @@
         <v>微信</v>
       </c>
       <c r="G43" t="str">
-        <v>大信科</v>
+        <v>DS重庆金菱运湖</v>
       </c>
       <c r="H43" t="str">
         <v>-</v>
       </c>
       <c r="I43" t="str">
-        <v>【E彩纷呈】线上 •本周讲座专场 | CMU DS、机器学习及热门CMU ETC游戏设计项目</v>
+        <v>#DS7·FM88.1#探秘涪陵武陵大裂谷之旅圆满结束</v>
       </c>
       <c r="J43" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=0RlvEfyAJXjs--lz6lKu5aBIsn*CVRTKeEG9FuiGgFOQpmf8xYUvBeYbsmvyXRFX85gll6nEQq7*zWmpFfWAq1vgRVAl6hHf*JDdQoqOXEgZl-3iJlHdGN8Wr6YuotGw&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=lklOfAUSKeZenhSDEBgG8r8UbqLjuhBlzxDe1Bi*d9Ui1uMX0FSTSXw1BBq4dphOjhKnKmAe56PqOyCeSem4rtqSMmqQUYruPOmUmQDEeJ1untw968-2HSbVA1p4-rBx&amp;new=1</v>
       </c>
       <c r="K43" t="str">
         <v>Tone</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="44">
       <c r="B44" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C44" t="str">
         <v>日常Daily</v>
@@ -1902,16 +1902,16 @@
         <v>微信</v>
       </c>
       <c r="G44" t="str">
-        <v>VincentHawk留学求职</v>
+        <v>车漫部落</v>
       </c>
       <c r="H44" t="str">
         <v>-</v>
       </c>
       <c r="I44" t="str">
-        <v>【线上 •本周专场】斯坦福数学PhD、CMU DS、牛津金融经济、政治学PhD、机器学习及CMU ETC游戏设计项目</v>
+        <v>上半年这5款车销量最扑街，一款自主品牌单月销量为负数</v>
       </c>
       <c r="J44" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=Ts*ak11h0UL7FGHQlOKVChEDD51InDPkb1HVRdIidHpUO3OMyJZaVxIZCnXK4Elw9wdtPoGTGmUA6MRZYJghCl*h7CzZDGUSfJc3*HcRVRsFK6kOvI3QFfJNaidDH9Yb&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=fRc-aUHg6q7LoZk*7wgcuSSjAGxZHSWN5vo3NiF*7SWHCvUtp4yClU*7*TwMTuDuwN8hD-UkTFBtrol8GRQPV6whjq0Lgf6kWNYR8x8o1nA9dikjhCTN7qKbM3UPmDxA&amp;new=1</v>
       </c>
       <c r="K44" t="str">
         <v>Tone</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="45">
       <c r="B45" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C45" t="str">
         <v>日常Daily</v>
@@ -1937,16 +1937,16 @@
         <v>微信</v>
       </c>
       <c r="G45" t="str">
-        <v>沐凡小站</v>
+        <v>大数据应用</v>
       </c>
       <c r="H45" t="str">
         <v>-</v>
       </c>
       <c r="I45" t="str">
-        <v>热门下载</v>
+        <v>每日一练 | Data Scientist &amp; Business Analyst &amp; Leetcode 面试题 411</v>
       </c>
       <c r="J45" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=ZBIg7wb*Ol7TUMlJ39m6Tzn*HR6wCQJWUhMWsZBwRLZqfFbuUgTwnbEGLmxdbr17-8eT*rZPIQ479nHvPw6OnqrOZjGXCsXMAUj0VSBCBKM0IrradWNMKo3MZZIH6Xyv&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=-Gv-VvPN9NvkjE0ji46KIIdLReeKnP3pUXi0uBkQTVB1VqI1CiO6FMaZl6RJZCUtrVipRPO90wk6vR*nuPuniFagVo7ntVkdgRy7hFH2cbeFXoNse8DlUNR-D5PomQYB&amp;new=1</v>
       </c>
       <c r="K45" t="str">
         <v>Tone</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="46">
       <c r="B46" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C46" t="str">
         <v>日常Daily</v>
@@ -1972,16 +1972,16 @@
         <v>微信</v>
       </c>
       <c r="G46" t="str">
-        <v>洛杉矶华人资讯网</v>
+        <v>DS授权经销商烟台佰利达品鉴中心</v>
       </c>
       <c r="H46" t="str">
         <v>-</v>
       </c>
       <c r="I46" t="str">
-        <v>不想成为美国公民时如何合法放弃入籍？专业律师告诉你正确方法！</v>
+        <v>法式魅力座驾DS7 前卫、科技、工艺集一身</v>
       </c>
       <c r="J46" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=f2hQG3HahhW*ztGAN7ADqHFBrjnQ*5zIxzVaf6YG69jN3FLYDjILBWjVDDxZcTo88X*Al3jR*3dzBDC50i8n7gXIZ3*ICeWjyJ2uurMP27*pcpkdeDHey2AyR9S*R8kV&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=FcjnZR0bdK038qWhs7oPVjgWITIrTe8X42L6Os7HrVwbnX8MmRfxmEvCmrFS*sKmoA7*ixoJfYCihkUg0Vl0mV3k*iucCLgVlAjie6ftiufk8OePY74APkBkam4XED7P&amp;new=1</v>
       </c>
       <c r="K46" t="str">
         <v>Tone</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="47">
       <c r="B47" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C47" t="str">
         <v>日常Daily</v>
@@ -2007,16 +2007,16 @@
         <v>微信</v>
       </c>
       <c r="G47" t="str">
-        <v>DSstudio</v>
+        <v>DS足球网</v>
       </c>
       <c r="H47" t="str">
         <v>-</v>
       </c>
       <c r="I47" t="str">
-        <v>【可预定】JC私人订制 3D龙</v>
+        <v>巴塞尔欲挽狂澜 萨洛尼卡求安全</v>
       </c>
       <c r="J47" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=i1lEijPEeRrzPX*obg0TPeOB-JMfcQgRYnwjZw4MK3tJjbo1QOag1efVGE*Ef3x36372wBQGiIihdvivR6ExRRgXHIlBcF69-wh0gU*8CdtblaHvmGINYxFaEn-9GXvY&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=6O6cpyisxIO*DDu*CF4ecTl7ORn1Knw0zuuSJjdo1iRhcmMceFm5ywky8dZtWofYWCgoSdYKoudFztMpOrOOaPtfWgHlhDPqPdvATTvGa9TeOZHroTIE0KwCOyV2EveR&amp;new=1</v>
       </c>
       <c r="K47" t="str">
         <v>Tone</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="48">
       <c r="B48" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C48" t="str">
         <v>日常Daily</v>
@@ -2042,16 +2042,16 @@
         <v>微信</v>
       </c>
       <c r="G48" t="str">
-        <v>PaperWeekly</v>
+        <v>DS安徽合和</v>
       </c>
       <c r="H48" t="str">
         <v>-</v>
       </c>
       <c r="I48" t="str">
-        <v>当前最好的非深度迁移学习方法：流形空间下的分布对齐</v>
+        <v>买一部车子的意义不止于此</v>
       </c>
       <c r="J48" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=*Xz3UT*mGkCUFmdOzeorWnjeZc-Ybm49W13eVNaayelfMy1HmrWPIQnwKU7rONKfNA3v8qDkrpyKUiAI5Vy2Fyyx8qV5UH4i27J1nSOzEAa8I7Vb4eMIQPS*Zmv12d14&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=Vn1NEVERdRkHxfWdPctsYRWz5*C3UpNtWrTyaJybVH2C33n06xuuGptuVOk79j3JgBBbhQsSWdalRUGDfwdKEDYa940EDWMQr9ON8GQguKxgQ8LX4XX9uiPjBEwHHBA*&amp;new=1</v>
       </c>
       <c r="K48" t="str">
         <v>Tone</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="49">
       <c r="B49" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C49" t="str">
         <v>日常Daily</v>
@@ -2077,16 +2077,16 @@
         <v>微信</v>
       </c>
       <c r="G49" t="str">
-        <v>每日汽车观察</v>
+        <v>山西谛艾斯汽车</v>
       </c>
       <c r="H49" t="str">
         <v>-</v>
       </c>
       <c r="I49" t="str">
-        <v>在中国水土不服的法系车，上半年全球业绩却都逆势飘红？</v>
+        <v>感恩回馈丨老客户再购DS7 送“终身”免费保养</v>
       </c>
       <c r="J49" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=GE2GHxdEuxrjNJuz2dfEZlRLTCYcir4rTL2D1BxSyHyZJ*iUoZMwTgKt*uCUMgagjpvlDGJZL1uY7nGQKl8JanMRGZsaYMMtQRTARdc5ctXg1gvrBmY*pRxtrNATfnGc&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=3WufE6*MJhbyL8YuoAXP2LXe-AQ2asyN49KtBrBtH79Pjuh8YS5pH31YGJQeQ5kY21n-*9sibH-k-QgMdlQYLMJ8fg6wqb3Ws2VGJ7zfMahN8Z9NSDn*lCryZF-EXxpM&amp;new=1</v>
       </c>
       <c r="K49" t="str">
         <v>Tone</v>
@@ -2112,16 +2112,16 @@
         <v>微信</v>
       </c>
       <c r="G50" t="str">
-        <v>DS安徽合和</v>
+        <v>大数据应用</v>
       </c>
       <c r="H50" t="str">
         <v>-</v>
       </c>
       <c r="I50" t="str">
-        <v>中餐厅版土味情话</v>
+        <v>每日一投 | Data Scientist &amp; Business Analyst Job Hunting 116</v>
       </c>
       <c r="J50" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107666&amp;ver=1033&amp;signature=nneZHMD6xiL16j-UdvOr-2fxxjrunkSJZCXLgkC*g34Dc6mgQPxfXc-IAVf5CkmwaDZDSDGF5JO0w4QY67QIwyiqQiwrRuNfTdBqIggNu9QkdVDv-RPzVxP5xyStbmfF&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178280&amp;ver=1035&amp;signature=-Gv-VvPN9NvkjE0ji46KIIdLReeKnP3pUXi0uBkQTVA8OgaPyoVm5NSkhta0tYWFn3hnlOqGAoh9*4BDDdr*gUZOeefxbN8LIRgy7IaSudVBKRa2ycDaHsAzXD9OopfN&amp;new=1</v>
       </c>
       <c r="K50" t="str">
         <v>Tone</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="51">
       <c r="B51" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C51" t="str">
         <v>日常Daily</v>
@@ -2147,56 +2147,21 @@
         <v>微信</v>
       </c>
       <c r="G51" t="str">
-        <v>DS足球网</v>
+        <v>大数据应用</v>
       </c>
       <c r="H51" t="str">
         <v>-</v>
       </c>
       <c r="I51" t="str">
-        <v>国际冠军杯：罗马复仇巴萨二队</v>
+        <v>每日一投 | Data Scientist &amp; Business Analyst Job Hunting 117</v>
       </c>
       <c r="J51" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=CuFM8niWWQAKjvboDHSoZaawZ*D0xw6qBAIulExKJcJam70WJ2tnO5wSUpXgMwcmf09yCSQBIctvXkw1rzDc3AQwMEjTVE7KFaVuj41*gngPWeuFz3cGtB6GWUxdMlrb&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=-Gv-VvPN9NvkjE0ji46KIIdLReeKnP3pUXi0uBkQTVBmIdgxa-JD0PEgS5er7Cw*7CSE1dLB6NY5awAYbRL6M4uOu00m2PRLglI0OR77KuQnkPAOl8m0dV90o9ICLU8c&amp;new=1</v>
       </c>
       <c r="K51" t="str">
         <v>Tone</v>
       </c>
       <c r="L51" t="str">
-        <v>媒体舆情</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="str">
-        <v>2018-08-01</v>
-      </c>
-      <c r="C52" t="str">
-        <v>日常Daily</v>
-      </c>
-      <c r="D52" t="str">
-        <v>微信wechat</v>
-      </c>
-      <c r="E52" t="str">
-        <v>DS</v>
-      </c>
-      <c r="F52" t="str">
-        <v>微信</v>
-      </c>
-      <c r="G52" t="str">
-        <v>纽约华人资讯网</v>
-      </c>
-      <c r="H52" t="str">
-        <v>-</v>
-      </c>
-      <c r="I52" t="str">
-        <v>如何放弃美国公民？</v>
-      </c>
-      <c r="J52" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=*wJkwHdoAyMIqxbzLxjHwJjRev2Uc*d9vON6bHyMAClNu8Gj7-qpZvfezVf2YuVzd6yuXSuXiRDaKaooe1M2bYn*Nz5LiAVfrCXV8s71ib8v-Jwo-*BoRL0e1ZlYzFbU&amp;new=1</v>
-      </c>
-      <c r="K52" t="str">
-        <v>Tone</v>
-      </c>
-      <c r="L52" t="str">
         <v>媒体舆情</v>
       </c>
     </row>
@@ -2217,16 +2182,16 @@
         <v>微信</v>
       </c>
       <c r="G53" t="str">
-        <v>山西谛艾斯汽车</v>
+        <v>解密女生</v>
       </c>
       <c r="H53" t="str">
         <v>-</v>
       </c>
       <c r="I53" t="str">
-        <v>无畏引领卓越丨王凯向您推荐法国总统座驾</v>
+        <v>10万块的充气娃娃究竟长啥样？</v>
       </c>
       <c r="J53" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=dWIj3oSh1HdLe0y0vb9y67J8XIHoTyOe54hdm7PEUZBnlyVZRqY8I7mPsL6PEW5lSdGLaeV8jBERBQb6tM6gJmF4dSohKtgdQyAOh8N0FqBY8Xdqi1ZM2vSSZSh2jPPM&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=HGxLGfuVwuIv4qRvSL-EGWEofRN09XXjARMNf1G*jV3DGoUTVJ054ULWAXLmKW9xTjcYuTFm8hz6yqspWeTfMRhKgwJcmu92sS3khDD-R2zAtYdGaAYT9X8WfnM5UQAa&amp;new=1</v>
       </c>
       <c r="K53" t="str">
         <v>Tone</v>
@@ -2237,7 +2202,7 @@
     </row>
     <row r="54">
       <c r="B54" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C54" t="str">
         <v>日常Daily</v>
@@ -2252,16 +2217,16 @@
         <v>微信</v>
       </c>
       <c r="G54" t="str">
-        <v>DSstudio</v>
+        <v>ABCDV网站</v>
       </c>
       <c r="H54" t="str">
         <v>-</v>
       </c>
       <c r="I54" t="str">
-        <v>【可预定】魔盒工坊 私人定制热带龙菊草叶小卡比兽</v>
+        <v>【德福考的不理想咋办？】来考DSH啊！</v>
       </c>
       <c r="J54" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=i1lEijPEeRrzPX*obg0TPeOB-JMfcQgRYnwjZw4MK3slGh-hmloZXdiZOCcG8X*ATonMml2zvp1InAL0RrQAxsmLg0EDPMpQXgICnDaWR0d4NzwZ8FfGnvlzC1CXZYJO&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=433qui*f7wsjsc1K4dn6WlfqhA4tdvu1KuzcMCUUlnn3OcMQ7uDxq1iwqZx*XvAuKHbvGRWbQZlpIQFeiQujoMwZrF2bUktGdPI0hPhhlIYPKGoLtjBMY4fuwrFkkjgE&amp;new=1</v>
       </c>
       <c r="K54" t="str">
         <v>Tone</v>
@@ -2272,7 +2237,7 @@
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C55" t="str">
         <v>日常Daily</v>
@@ -2287,16 +2252,16 @@
         <v>微信</v>
       </c>
       <c r="G55" t="str">
-        <v>热处理生态圈</v>
+        <v>佳信自控</v>
       </c>
       <c r="H55" t="str">
         <v>-</v>
       </c>
       <c r="I55" t="str">
-        <v>如何做好槽类零件感应淬火？</v>
+        <v>西门子SEH62.1</v>
       </c>
       <c r="J55" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=jfM8NiDXjKrMf-bH2Fg2m6XdQLzOFjv-jFCVYUeo*k39XG8JpnSt9ZpAMvOc8s*dfbXMhDBmtqRuyZVSRh7UmvLjFa9khg3twfkRdpWI1G-0diiD7yCMm5EyxHeXclV7&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=7vvkcJ8F*jVhqbMjQ-LDplN6ANUNeWULabEtJYYelphldBGVcKLvA3QX8109XdDkzVwHG89i2hl6W6wJ6m34qrlCmqoZ6ickUlSxuqiy02x0xBmZYIwPOSLD74j7FEIE&amp;new=1</v>
       </c>
       <c r="K55" t="str">
         <v>Tone</v>
@@ -2307,7 +2272,7 @@
     </row>
     <row r="56">
       <c r="B56" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C56" t="str">
         <v>日常Daily</v>
@@ -2322,16 +2287,16 @@
         <v>微信</v>
       </c>
       <c r="G56" t="str">
-        <v>当代景观设计公司</v>
+        <v>考试升学指南</v>
       </c>
       <c r="H56" t="str">
         <v>-</v>
       </c>
       <c r="I56" t="str">
-        <v>一张素雅的“飞毯”，城市广场也可以很动感</v>
+        <v>GMAT数学备考步骤</v>
       </c>
       <c r="J56" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=MAN8QvgZZQqgkFDOcSiYrMowEV7k80f3Q8Txu4wx7KLlX6BmFUx8Hshq1bE3VKvTFObixvm81eM3lQ1UyL3VWrgUcGt40KPOcGBGuuy*H6QYND*HS7E2pfGp7kIza1bv&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=ITnFojV4yyNMfGTcrLUC2RzTY07wA9uErqw8yYNEyf2UePh4RCLT0GNLZLnOa68z8I83PRs9qkuV41hbCOZa2Vl8cbxENC8roIrqsaJ04HmmdVLiid1fhJhsWQuf-*u2&amp;new=1</v>
       </c>
       <c r="K56" t="str">
         <v>Tone</v>
@@ -2342,7 +2307,7 @@
     </row>
     <row r="57">
       <c r="B57" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C57" t="str">
         <v>日常Daily</v>
@@ -2357,16 +2322,16 @@
         <v>微信</v>
       </c>
       <c r="G57" t="str">
-        <v>DS南通大达</v>
+        <v>AutoLab</v>
       </c>
       <c r="H57" t="str">
         <v>-</v>
       </c>
       <c r="I57" t="str">
-        <v>台风安比过后，留下了这段佳话</v>
+        <v>在中国水土不服的法系车，上半年全球业绩却都逆势飘红？</v>
       </c>
       <c r="J57" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=8W0GCgaiwkzKWe*PcStr1BqLoyBTF2ajbvNCl174eTpfzaEUGT3mDwYo95u1x6lm1MEtWGp-A4eZ2KuPPg5KCTJKrU2DlWnGlJOuFbWTOT6fPn27DR0wE2-aSPlXhs-V&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=wMTy0LerCu6LuTQnl2jt50OgX*K1vD0MURcWotnJfs-pRPszuVdZYsy85XlO0aDu88HCYkX3IxzOsnWyEJ*BeqsTyE2qfocwdLHJn3prrOCCgb8n5M4*dPmP-tqZHmy4&amp;new=1</v>
       </c>
       <c r="K57" t="str">
         <v>Tone</v>
@@ -2377,7 +2342,7 @@
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C58" t="str">
         <v>日常Daily</v>
@@ -2392,16 +2357,16 @@
         <v>微信</v>
       </c>
       <c r="G58" t="str">
-        <v>DS上海越也新天地</v>
+        <v>山西谛艾斯汽车</v>
       </c>
       <c r="H58" t="str">
         <v>-</v>
       </c>
       <c r="I58" t="str">
-        <v>生而前卫，现在驶向未来</v>
+        <v>无畏引领卓越丨王凯向您推荐法国总统座驾</v>
       </c>
       <c r="J58" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=yS1w1emelLlpF1vI1q6rZHqMjoLZGiSDRu-h9ftcOSyeqDwu-qXGuTW4z07safwLe053G*Df3fWKZ4t0XvowWx7mzZuUfCeJR3ojBdzKdX7AYWUVYjMw-JS5v2vh5-*5&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=3WufE6*MJhbyL8YuoAXP2LXe-AQ2asyN49KtBrBtH78o6q1l9eJFvORLdCKGm0IHHgtPNgN*7ULP1lEazPM1SerCl1EUtxIW3TPMiGU81bYmNJ9dXDDZ7SLqExpnW2Sq&amp;new=1</v>
       </c>
       <c r="K58" t="str">
         <v>Tone</v>
@@ -2427,16 +2392,16 @@
         <v>微信</v>
       </c>
       <c r="G59" t="str">
-        <v>汽车制造网</v>
+        <v>驾乘者</v>
       </c>
       <c r="H59" t="str">
         <v>-</v>
       </c>
       <c r="I59" t="str">
-        <v>177台机器人，100%自动化，精度0.5mm保证法国总统座驾</v>
+        <v>产品毫无技术亮点，多款车型销量暴跌，法系品牌彻底被边缘化</v>
       </c>
       <c r="J59" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=iklWzm0ooZbUWkN1RmMikRV-cEUYsEY1QDgZnRMnWShqNKJ6cD92YXULEe3JkCvxJX*1mh1RyuKSTxhgqeASrP5NgnaxQ3R*DczN9mzAS3PyVWst19xTkex6RBpzU*Zm&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=sZjcFkJewS3j35ybjg*z7YtX7HJif6z7cDTWJLrrXLQekzruvQ4iRaKvzlOuSRJR*O78ptdIxRn0iNEVYKJhqvCU-nqv*BeTz9IgKwtwOUkBhUI3-uBfsFHz4j3OiBeq&amp;new=1</v>
       </c>
       <c r="K59" t="str">
         <v>Tone</v>
@@ -2447,7 +2412,7 @@
     </row>
     <row r="60">
       <c r="B60" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C60" t="str">
         <v>日常Daily</v>
@@ -2462,16 +2427,16 @@
         <v>微信</v>
       </c>
       <c r="G60" t="str">
-        <v>工匠直聘</v>
+        <v>都市算命师</v>
       </c>
       <c r="H60" t="str">
         <v>-</v>
       </c>
       <c r="I60" t="str">
-        <v>177台机器人，100%自动化，精度0.5mm保证法国总统座驾</v>
+        <v>【沐宣堂】易学每日一问 父母给的同等价格的一套贷款的房子和一辆全款的车，我该选哪个？判词：贲如濡如，永贞吉</v>
       </c>
       <c r="J60" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107711&amp;ver=1033&amp;signature=gI3rOhXvc0eUzxYo9UrCxSavEbesTXwhq7k07oT25wj*MOsgTXs1Ce0FasMGk1jnRCVJ-5Z**uv4BSuPqD2MvlxmDHqxmZQtC6wLKpP*ABAWqT*j*eDXn5bTHCVJAXaE&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178323&amp;ver=1035&amp;signature=pH27Ia1yxiJdUg8I-gAiLP1XzeTfSfpWk0qOmXfq0Nbuti74BG-OEjHMujv5gWMzqhGvYpMipxVi-zMCMqRIkg5MBq*ghvKSMigR89xVBAoPD2*hD1yBt0HvrGc1iBaR&amp;new=1</v>
       </c>
       <c r="K60" t="str">
         <v>Tone</v>
@@ -2482,7 +2447,7 @@
     </row>
     <row r="61">
       <c r="B61" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C61" t="str">
         <v>日常Daily</v>
@@ -2497,16 +2462,16 @@
         <v>微信</v>
       </c>
       <c r="G61" t="str">
-        <v>汽车司机</v>
+        <v>都市算命师</v>
       </c>
       <c r="H61" t="str">
         <v>-</v>
       </c>
       <c r="I61" t="str">
-        <v>品牌比不上大众，可这车比Q3还奢华，20万上路，6月惨到卖了一台</v>
+        <v>【沐宣堂】易学每日一问 父母给的同等价格的一套贷款的房子和一辆全款的车，我该选哪个？判词：贲如濡如，永贞吉</v>
       </c>
       <c r="J61" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=kRUvMvDDfD*rCurXwSoqiPfQlMwkUeKJN4L5vrhlzRpQaVJnL-yZlR5k*JMlw0rAlKsXMmyticbVJBe5ZoeH*LrIhHLlrK4-vIHF5OjdDPG7T2RqzucmLaIpenXiES03&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=pH27Ia1yxiJdUg8I-gAiLP1XzeTfSfpWk0qOmXfq0Nbuti74BG-OEjHMujv5gWMzWDEFug9d1UgSXqVJ040x43Z3yqmnDZ*kH*agdgutr4ZoslJFJq1o1rW27jLXq0hA&amp;new=1</v>
       </c>
       <c r="K61" t="str">
         <v>Tone</v>
@@ -2532,16 +2497,16 @@
         <v>微信</v>
       </c>
       <c r="G62" t="str">
-        <v>旧金山华人资讯网</v>
+        <v>LOGO大师</v>
       </c>
       <c r="H62" t="str">
         <v>-</v>
       </c>
       <c r="I62" t="str">
-        <v>如何放弃美国公民？</v>
+        <v>云朵元素LOGO设计合集鉴赏！</v>
       </c>
       <c r="J62" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=PmS67i0u*Sgr0vXXV-Vy8DvkG4UmtwjsQTcAvjUfNEUmvLK8sbgSljU2tBYWK4BtztI-7JyNirqK6K9DXAcvyjugZQ2q83jxVOHq4HYYASDHZDV38H5aHFBd0M4YsJti&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=aMvGwUDOhf8U7PHya1FDk6awy8DH-SwKndFrsylixYinatIIXqpiA94LEBjN9WgJcGYIzV4uTmjbkD-37k2nDwEfdCDK*M6SoIJ-waUNPuKKK*qKh-x3Qc7wLX4Jw1u2&amp;new=1</v>
       </c>
       <c r="K62" t="str">
         <v>Tone</v>
@@ -2552,7 +2517,7 @@
     </row>
     <row r="63">
       <c r="B63" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C63" t="str">
         <v>日常Daily</v>
@@ -2567,16 +2532,16 @@
         <v>微信</v>
       </c>
       <c r="G63" t="str">
-        <v>七爷谈车</v>
+        <v>星环科技</v>
       </c>
       <c r="H63" t="str">
         <v>-</v>
       </c>
       <c r="I63" t="str">
-        <v>毁于名字的5个汽车品牌，第五个听起来像是骂人，活该没人买！</v>
+        <v>【巡展预告】（厦门站）2018星环科技大数据3.0研讨会</v>
       </c>
       <c r="J63" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=eCIhFGt-iQuXZadCg-RhgIcOII1jvoT4h12B-VeXgSMIhHtg5f0SjbE3nqemGq3RYC9qgEzJeXwqNqMDtwf-Tzf6zET5Mnslr8Ep37tYq5trM5d*dJpAFC9PrThZjc7p&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=6B7n1zMW0qCAQf2SxpWx9luFVY49BHidOpsAzX0PvuzgFCTQEGf6L*rQZxfV7qcPquQ3dDRvMdLqOKNhP67MPSVsh7f4j5tRm7Eir4YORd2D17k*wDPKL5hpHst3Mnlb&amp;new=1</v>
       </c>
       <c r="K63" t="str">
         <v>Tone</v>
@@ -2602,16 +2567,16 @@
         <v>微信</v>
       </c>
       <c r="G64" t="str">
-        <v>星环科技</v>
+        <v>建国成都亨孚DS品牌店</v>
       </c>
       <c r="H64" t="str">
         <v>-</v>
       </c>
       <c r="I64" t="str">
-        <v>向最可爱的他们致敬！</v>
+        <v>是什么让他们选择了DS7？</v>
       </c>
       <c r="J64" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=NEWyY64haWUNtWYJF1hqiUWfZE1OtleQr1-sxmD4DPDxJf*Gkih10vuHg8U1kQ1yRbIc0IXCW0R-tZdBhAvFJWdjBcK-E2XJ365YHYxu4MvGXkftdGD16ZXa5eZIJCt0&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=86q2KQgoJ3owHft72aAUY9Zih8U27UgEOPa8gJhNVo22j5JxyL1PIH*AitBFTZkwPBRKg2gUkkI0x8BeVauQw*Vn3OlfCkzSEFgbYWSPgYK8OqqvBMh8oUAk4eCMOffr&amp;new=1</v>
       </c>
       <c r="K64" t="str">
         <v>Tone</v>
@@ -2622,7 +2587,7 @@
     </row>
     <row r="65">
       <c r="B65" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C65" t="str">
         <v>日常Daily</v>
@@ -2637,16 +2602,16 @@
         <v>微信</v>
       </c>
       <c r="G65" t="str">
-        <v>DSstudio</v>
+        <v>沈阳百大钢铁加工物流园</v>
       </c>
       <c r="H65" t="str">
         <v>-</v>
       </c>
       <c r="I65" t="str">
-        <v>【补款通知】年度大作补款即将截至</v>
+        <v>酸洗现货资源</v>
       </c>
       <c r="J65" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=i1lEijPEeRrzPX*obg0TPeOB-JMfcQgRYnwjZw4MK3tSBo1mAHWELoPH82D2xZLHHRsBbW4vLIpO4sx-mpgdGB7FoPD8b*yXtEv2kVWopC8wDc4SUp2wVHMDpvmOgvwN&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=yTgLvqqAfAPadSz*Xjfjja4ssbnG*QHS8rMR*BJOIbGbJshmqYbc3kVjKeUUisOVi*K2DZgkbOMbwVDnGTZBGit4hTe*Ig-kFfOM-dV44bRfduLFNMWOLTp9M0MlDWaj&amp;new=1</v>
       </c>
       <c r="K65" t="str">
         <v>Tone</v>
@@ -2672,16 +2637,16 @@
         <v>微信</v>
       </c>
       <c r="G66" t="str">
-        <v>大数据应用</v>
+        <v>托凯旅行</v>
       </c>
       <c r="H66" t="str">
         <v>-</v>
       </c>
       <c r="I66" t="str">
-        <v>每日一练 | Data Scientist &amp; Business Analyst &amp; Leetcode 面试题 410</v>
+        <v>如何申请美国签证？美国签证申请全攻略，满满的都是干货！</v>
       </c>
       <c r="J66" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=aDH3UpOMdCjWwx-8x379g3J9b2tSXfG-2FFheL5F5WGWtjI9nvhLh6*YfXRJz9tumSTALJphfqXaNtX19bq-Fx3W21TYbRDjjPoPSwaSWu1JpwwiaIWVWY4cqQEyPhj*&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=**OT4diXzZuduOefkaJFfeoX-BzGKZHR1bhiR-U2iwnEt9np-Vf7*32PJkeYugvwtCivsb9r-cQPg-NCg6pEIu8QL2FcA0XPvRLGa2hzAK6YABayOWFVs-zivp2rgWLJ&amp;new=1</v>
       </c>
       <c r="K66" t="str">
         <v>Tone</v>
@@ -2692,7 +2657,7 @@
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C67" t="str">
         <v>日常Daily</v>
@@ -2707,16 +2672,16 @@
         <v>微信</v>
       </c>
       <c r="G67" t="str">
-        <v>大数据应用</v>
+        <v>Infortrend存储</v>
       </c>
       <c r="H67" t="str">
         <v>-</v>
       </c>
       <c r="I67" t="str">
-        <v>每日一练 | Data Scientist &amp; Business Analyst &amp; Leetcode 面试题 409</v>
+        <v>缚住苍龙！—Infortrend EonStor GSc混合云拿下药企龙头的传奇</v>
       </c>
       <c r="J67" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=aDH3UpOMdCjWwx-8x379g3J9b2tSXfG-2FFheL5F5WEN7onvKB6ja90DE*ZlsVQ9mEYuc1stknsjrO6xRVXEkt0nOt1Lpc5KVdXYNfpWKSz*jHU9koVZSZ8hoeXX*mTm&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=B-SIZjqodna2LeT02Inp-VEoNyrkE*mRM4Bt6Y1T6ws*LU6u43UcaPflZyrPZpOrgqytifw6p5oNV7xeO5kT5KvhXvJQTywlvLL6FD-gE8wzadzihD2bldYBoH-I7CjB&amp;new=1</v>
       </c>
       <c r="K67" t="str">
         <v>Tone</v>
@@ -2727,7 +2692,7 @@
     </row>
     <row r="68">
       <c r="B68" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C68" t="str">
         <v>日常Daily</v>
@@ -2742,62 +2707,27 @@
         <v>微信</v>
       </c>
       <c r="G68" t="str">
-        <v>DS张家港海奇</v>
+        <v>世博商贸批发中心</v>
       </c>
       <c r="H68" t="str">
         <v>-</v>
       </c>
       <c r="I68" t="str">
-        <v>八一建军节，我们向最可爱的人致敬！</v>
+        <v>【世博广场】首届少儿才艺大赛第一、二场海选火热开赛，引全城沸腾~！</v>
       </c>
       <c r="J68" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=YsuPuOu2LvuRJ*crXbZaQ0V5p1v-dt51zIpwgydKVCpDq8vE*mUBYoVAQSvHemb67Sraq0JBZHi53xUDK-s6zRvASVoeI2Uh4Ta0LmOdrJDYwzHYFStO3NZ7xBSCwVhB&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=ye1mMbbrxEj6sLXWIC2SUAZyoGkOwxWAjWr47*YlizqHXMYbNz5nS4uM3RXmOxjyUTGLVs*KPS3rMqYQMR1JvmiK9Yc*1LKhRt62gZzSLKNiBQbmaTIa9nSzmfDchGr5&amp;new=1</v>
       </c>
       <c r="K68" t="str">
         <v>Tone</v>
       </c>
       <c r="L68" t="str">
-        <v>媒体舆情</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="str">
-        <v>2018-07-31</v>
-      </c>
-      <c r="C69" t="str">
-        <v>日常Daily</v>
-      </c>
-      <c r="D69" t="str">
-        <v>微信wechat</v>
-      </c>
-      <c r="E69" t="str">
-        <v>DS</v>
-      </c>
-      <c r="F69" t="str">
-        <v>微信</v>
-      </c>
-      <c r="G69" t="str">
-        <v>DS安徽合和</v>
-      </c>
-      <c r="H69" t="str">
-        <v>-</v>
-      </c>
-      <c r="I69" t="str">
-        <v>幻美双眸 流光溢彩</v>
-      </c>
-      <c r="J69" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=nneZHMD6xiL16j-UdvOr-2fxxjrunkSJZCXLgkC*g36FljNPO9RvHpIWil1rin*nKIZu8meH0f1Pvk70grmzpypApztT3Ld4kPZFU4qF9vK47K81T069nwvN5CtvN6sy&amp;new=1</v>
-      </c>
-      <c r="K69" t="str">
-        <v>Tone</v>
-      </c>
-      <c r="L69" t="str">
         <v>媒体舆情</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C70" t="str">
         <v>日常Daily</v>
@@ -2812,16 +2742,16 @@
         <v>微信</v>
       </c>
       <c r="G70" t="str">
-        <v>每日文摘报刊</v>
+        <v>七宝老陈叔</v>
       </c>
       <c r="H70" t="str">
         <v>-</v>
       </c>
       <c r="I70" t="str">
-        <v>又一款豪车大降价，跟沃尔沃一样安全环保，2.7米轴距顶配才20万</v>
+        <v>周日：锤子/诺基亚报价</v>
       </c>
       <c r="J70" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107754&amp;ver=1033&amp;signature=5V-oipywbgdZSWxoWF7LAbWDVU*t1Iju4gvxiLJq4enckA6GOirNa2l7scCdwTPU0NRxMqltinzqfxDhrs*rceynpm1MS2A7F*rTpIalYs*caZ5Y876r*t9cQsTsBLGg&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178367&amp;ver=1035&amp;signature=Ya6Vt4jcO5MVvVL4fbLIN*ZVL2u-k6rpk8TB*wKYyADRyEbfa675FF0lUNzcGOz6OSoN6rcxwGrFJdCGK-CG0yGTFzAm1P-o-KS1ezvzy4G0QsG-i8e-TAR*99Vk0*04&amp;new=1</v>
       </c>
       <c r="K70" t="str">
         <v>Tone</v>
@@ -2847,16 +2777,16 @@
         <v>微信</v>
       </c>
       <c r="G71" t="str">
-        <v>DS授权经销商烟台佰利达品鉴中心</v>
+        <v>DS上海越也新天地</v>
       </c>
       <c r="H71" t="str">
         <v>-</v>
       </c>
       <c r="I71" t="str">
-        <v>法式魅力座驾DS7 前卫、科技、工艺集一身</v>
+        <v>缤纷盛夏 上海新天地特惠来袭~</v>
       </c>
       <c r="J71" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=uaF50T-6vdBwUsCMvxWSV4jPH3KiFhmzcXPgQ45ghvJazAi9KhF*zQfr3Zq843-pv7yPqrmLCLwtznR2OeY40D3qhD*Xr*-GL8dgliWm-cLOqor2YGxgvw*TtG20Ivnp&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=3UvL*z8jIqRBCKlJ31RJHh3RTPNz-obhwEx8QvN4t231VVMVIyq5eER7WoStxxAuy1UswpSdHUV1Q7mxQk8C5f1jAQ6oKlrM5aUIeVIanNIu1wzgV6LbeXmWpnT3YxX-&amp;new=1</v>
       </c>
       <c r="K71" t="str">
         <v>Tone</v>
@@ -2867,7 +2797,7 @@
     </row>
     <row r="72">
       <c r="B72" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C72" t="str">
         <v>日常Daily</v>
@@ -2882,16 +2812,16 @@
         <v>微信</v>
       </c>
       <c r="G72" t="str">
-        <v>广州芬朗电子科技有限公司</v>
+        <v>林小姐的花房</v>
       </c>
       <c r="H72" t="str">
         <v>-</v>
       </c>
       <c r="I72" t="str">
-        <v>马自达昂科赛拉升级芬朗汽车音响【重庆乐改】</v>
+        <v>机械设备行业精选详情页设计案例，阿里首图，代码装修，倒计时海报促销。</v>
       </c>
       <c r="J72" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=3hMvVUNAyVnuOhtR8o9Cii*1RI*0n29cWnUOBfiQuQaobNWEBzXaUYuLN5XKCOnSC30986xJi6nBwZYuW3l2eAAbvj2g63fQ5MgskredZrySKylqJB9Z24sreaT88NLL&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=x2UNG01H*gkIkacKAYhqX*3-4zihZxT6*E1RmuWeUNAxbt6FSuzhCCDtSL6l0-3In8kvwYtweBDLUBPKYXrxx8IRny4YbHh8TdRjzb6XcK6BNGDhv906Xpyjl7GmdPOg&amp;new=1</v>
       </c>
       <c r="K72" t="str">
         <v>Tone</v>
@@ -2902,7 +2832,7 @@
     </row>
     <row r="73">
       <c r="B73" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C73" t="str">
         <v>日常Daily</v>
@@ -2917,16 +2847,16 @@
         <v>微信</v>
       </c>
       <c r="G73" t="str">
-        <v>中山中德DS</v>
+        <v>雕塑杂志</v>
       </c>
       <c r="H73" t="str">
         <v>-</v>
       </c>
       <c r="I73" t="str">
-        <v>爱车养护学堂开课啦！</v>
+        <v>吴曦 | 2018全国高校毕业生优秀雕塑作品展钱绍武学术奖</v>
       </c>
       <c r="J73" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=SqKJzPsexlvNG4qfhdmYvU-JONTyz7XWj3w*P7iKuGJgKKR2lWIdH4r3D4ox4RSQjKM8GkYvBa2D*VwJHz7U0h0KlFPWJB3meNUsjcuCkbx8i9QoU7Q5ya7uWEIoU4Kj&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=jVH6-IeFRFXIq2RsPetFI6RYon4TuffaC-JY9TMUABUi-w3kTKz7izmkR467XlRTH62aS0YsRB7z7mY1cXtoU1EcjqFkud-KcydkAsBW9nCXuHoNzk3nSZf*XX0k29ys&amp;new=1</v>
       </c>
       <c r="K73" t="str">
         <v>Tone</v>
@@ -2937,7 +2867,7 @@
     </row>
     <row r="74">
       <c r="B74" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C74" t="str">
         <v>日常Daily</v>
@@ -2952,16 +2882,16 @@
         <v>微信</v>
       </c>
       <c r="G74" t="str">
-        <v>瘦肚子瘦腰瘦腿</v>
+        <v>四川巴蜀联胜渠道部</v>
       </c>
       <c r="H74" t="str">
         <v>-</v>
       </c>
       <c r="I74" t="str">
-        <v>烧烤摊的花生毛豆你还敢吃吗？</v>
+        <v>新品发布丨听说海康威视L2智能锁也有联网版了？</v>
       </c>
       <c r="J74" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=k7n3ZePak6El-BMg9N2HiqrS0hj8NqAIm5F1Raa8JvU1KiK9u8H5Njb0CGI49EKtqzcbWkuUCpUW-VTkLOobI4cDmhinOXdmAbRtJeJNY0gew4s8LambVc8emKu6TTIY&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=91jm*qg3NVD*yLd4zBtEs-LfpaHChfX95k*kOazUvYB6420QRa*vY8Q9ykb3Ah4c71EUE7VTpkRl1h75hAhaD2PILZKDjXMXPySsKsl3LP4BiKvfptm7HIWJDltnQAWZ&amp;new=1</v>
       </c>
       <c r="K74" t="str">
         <v>Tone</v>
@@ -2972,7 +2902,7 @@
     </row>
     <row r="75">
       <c r="B75" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C75" t="str">
         <v>日常Daily</v>
@@ -2987,16 +2917,16 @@
         <v>微信</v>
       </c>
       <c r="G75" t="str">
-        <v>世至其美</v>
+        <v>精诚国旅</v>
       </c>
       <c r="H75" t="str">
         <v>-</v>
       </c>
       <c r="I75" t="str">
-        <v>汇编学习-loop和[BX]指令</v>
+        <v>没事儿喝点吧，Ins上最热的首尔咖啡厅TOP5</v>
       </c>
       <c r="J75" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=AXOEozRNkw2muXDNjJb4m0aS-p2z1ypbUfYifhP9mHNq8ODLo1*YfGibLht6PHAhwTJ3T1vpR8qUBISrGzd*ou*prG880eYfoiWMbpnVxFQFXNhW-XL7qddUBviIeaKH&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=07FonjT*4UQBdauSVl6Oo9BiMFv8E3HBBCIbG0nwL5AyyBsUIqp09T1PjGzpxVyF8-HTYYSU2ziVKH8RkXNiTuBlWO4xphZqbgoR2rHlHZJiXHyWOwEbUcJ-EsIJpvV7&amp;new=1</v>
       </c>
       <c r="K75" t="str">
         <v>Tone</v>
@@ -3007,7 +2937,7 @@
     </row>
     <row r="76">
       <c r="B76" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C76" t="str">
         <v>日常Daily</v>
@@ -3022,16 +2952,16 @@
         <v>微信</v>
       </c>
       <c r="G76" t="str">
-        <v>水滴汽车</v>
+        <v>IUFO@OSU</v>
       </c>
       <c r="H76" t="str">
         <v>-</v>
       </c>
       <c r="I76" t="str">
-        <v>PSA公布上半年财报，中国区老总尴尬了</v>
+        <v>最新International Check-in指南【图文版】</v>
       </c>
       <c r="J76" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=z-BwZyfhaav8B6fcSR0mgBZRnvj1GDilZ3G5xa0npJtpQqcDW192MnBQ-G6gbWTOs5SUxg7Bv1IrEESX-bv8iCvRk0bsrwAMxHkkLXwsHJXjrSTmVvBB-vk1HcLPdmwl&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=DEWqGq5asWctGE0eNr8VsLK-QlV3uMANXCQtEYm1B--jhpq0*QNZWf4OLtxePHk15QFrsxTE-iIkT-UTYUYBL2NxfPpgij0ShGbOLhdaJsABKfnY6NaiXfWj0gG3NpbC&amp;new=1</v>
       </c>
       <c r="K76" t="str">
         <v>Tone</v>
@@ -3042,7 +2972,7 @@
     </row>
     <row r="77">
       <c r="B77" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C77" t="str">
         <v>日常Daily</v>
@@ -3063,10 +2993,10 @@
         <v>-</v>
       </c>
       <c r="I77" t="str">
-        <v>【新闻】星环科技受邀为上海国资企业培训大数据审计相关课程</v>
+        <v>星环科技全面布局大数据3.0 一场工业革命悄然爆发</v>
       </c>
       <c r="J77" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=NEWyY64haWUNtWYJF1hqiUWfZE1OtleQr1-sxmD4DPDaYSMRwMRlRcUK2spK2nMVaGPdyytPpIrqbuIiKc3wv3h81512Tyz2IumxFGqO6xAjTwYxAwpPBXmjTKFpjLkX&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=6B7n1zMW0qCAQf2SxpWx9luFVY49BHidOpsAzX0PvuyL9rwoWqrmY12ZymMrEiGwSAGHWCo2DQR7wo3vblstyj3KgkE3BLtEu9rRUCZ8sX0HhmGvHf8g7I0yhcA453MM&amp;new=1</v>
       </c>
       <c r="K77" t="str">
         <v>Tone</v>
@@ -3077,7 +3007,7 @@
     </row>
     <row r="78">
       <c r="B78" t="str">
-        <v>2018-08-01</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C78" t="str">
         <v>日常Daily</v>
@@ -3092,16 +3022,16 @@
         <v>微信</v>
       </c>
       <c r="G78" t="str">
-        <v>大数据应用</v>
+        <v>应用DBA</v>
       </c>
       <c r="H78" t="str">
         <v>-</v>
       </c>
       <c r="I78" t="str">
-        <v>每日一投 | Data Scientist &amp; Business Analyst Job Hunting 116</v>
+        <v>一次SQL语法写法不规范造成的PGA耗用较大且不释放的案例分析</v>
       </c>
       <c r="J78" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=aDH3UpOMdCjWwx-8x379g3J9b2tSXfG-2FFheL5F5WHYeQWnPs1dB1ou5PxDWLic*jfwKJx1w2WGMc86hPHEz2mkhclcC-07NwwrDz4nZpF6k8YEXCaY*q8YOCe519N5&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=2BC4K7FrPGWib2mHyqL7XCISh8IB1hTDu7aY28W2zjJy1DjP018qbPH1p4Cj-35MfDXEK8Th6vUwjdAApNvuQkZGqnzWJ7zOtg*sQuSmeWXAsKp-1hqAOK7pSbTOrbiN&amp;new=1</v>
       </c>
       <c r="K78" t="str">
         <v>Tone</v>
@@ -3112,7 +3042,7 @@
     </row>
     <row r="79">
       <c r="B79" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C79" t="str">
         <v>日常Daily</v>
@@ -3127,27 +3057,62 @@
         <v>微信</v>
       </c>
       <c r="G79" t="str">
-        <v>东尚木业</v>
+        <v>丰华眼视光门诊</v>
       </c>
       <c r="H79" t="str">
         <v>-</v>
       </c>
       <c r="I79" t="str">
-        <v>小巴花是一种什么样的木材？</v>
+        <v>验光技巧：裂隙片和云雾法</v>
       </c>
       <c r="J79" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107798&amp;ver=1033&amp;signature=YljipNQIWE49hWZuJL8MK9zUwQcypcRAsdiP*eKOf9tx0FBqagV0pBr9jeXarfRKPUctrDB7j6NAJlAJb2TlkTJ03kqHY1zeqpRBxcSJ*A*t2pIwgG5xAQ2sKQS6fzNq&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=veJq1i2FEMPkPwdBxuj2VFrCKF7GO0*YQO*7ZnwztrXPkRRPx4N0ZtKDVj1WXp9jMmsm6ukYu6NjOCtdhBzMsBr53AeRGQYBK-7DAOJ*jgLVEjba2w6DUkzO*CEjZwcE&amp;new=1</v>
       </c>
       <c r="K79" t="str">
         <v>Tone</v>
       </c>
       <c r="L79" t="str">
+        <v>媒体舆情</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>2018-08-02</v>
+      </c>
+      <c r="C80" t="str">
+        <v>日常Daily</v>
+      </c>
+      <c r="D80" t="str">
+        <v>微信wechat</v>
+      </c>
+      <c r="E80" t="str">
+        <v>DS</v>
+      </c>
+      <c r="F80" t="str">
+        <v>微信</v>
+      </c>
+      <c r="G80" t="str">
+        <v>都市零距离社区</v>
+      </c>
+      <c r="H80" t="str">
+        <v>-</v>
+      </c>
+      <c r="I80" t="str">
+        <v>免费看各大平台VIP电影</v>
+      </c>
+      <c r="J80" t="str">
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178412&amp;ver=1035&amp;signature=Q62Rw3*vUwhnbo7cLw2DSUhQsmgRpkkS8VlyK00nC7d2cqXw22JDPVfATB4*GnYxn9c5gV3Koyij3V2vos2hmnEVYJn5otppSYO1h6JiIl2El42L8NPO0fAcZqBLm2Qj&amp;new=1</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Tone</v>
+      </c>
+      <c r="L80" t="str">
         <v>媒体舆情</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C81" t="str">
         <v>日常Daily</v>
@@ -3162,16 +3127,16 @@
         <v>微信</v>
       </c>
       <c r="G81" t="str">
-        <v>扑克迷</v>
+        <v>DS上海越也新天地</v>
       </c>
       <c r="H81" t="str">
         <v>-</v>
       </c>
       <c r="I81" t="str">
-        <v>趣闻 | Dan Smith：我不会为了金手链改变日程！</v>
+        <v>DS7，魅力“爆表”车型！</v>
       </c>
       <c r="J81" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=8y5JwtQqW5BDqIwQK7bst2yKEq6FtVl74T2meCTDZU9xhDGaDJqMzqtnTs6KAJ9vc89wciB5oBit8ObNv8-*Jo2q7naTEDwqVJxiNON2ArKYNy79WMsXIydYM5lFkfbX&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=3UvL*z8jIqRBCKlJ31RJHh3RTPNz-obhwEx8QvN4t21CI9lwst*t6t2NHQlyFWROaNf*HLa3LIToep861e0X0CbvA0oJmYCjJ510f3mlAwAaxm4HAZIZ6RxvCn8pqdfq&amp;new=1</v>
       </c>
       <c r="K81" t="str">
         <v>Tone</v>
@@ -3182,7 +3147,7 @@
     </row>
     <row r="82">
       <c r="B82" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C82" t="str">
         <v>日常Daily</v>
@@ -3197,16 +3162,16 @@
         <v>微信</v>
       </c>
       <c r="G82" t="str">
-        <v>DS上海越也新天地</v>
+        <v>郑州华熙电子有限公司</v>
       </c>
       <c r="H82" t="str">
         <v>-</v>
       </c>
       <c r="I82" t="str">
-        <v>比灯厂奥迪还秀？总统御用座驾--DS7</v>
+        <v>郑州华熙电子散件日报 2018年8月2 星期四 经商=做人=信誉</v>
       </c>
       <c r="J82" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=yS1w1emelLlpF1vI1q6rZHqMjoLZGiSDRu-h9ftcOSyQ8L9CRwXVnwpHiNjWIO3g2M0jgT*htW0kSfC24WSH8WIfNdYLz-CGtyIodRvXQo6CdB9aGv629sHmb1YcuSRW&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=PFzvH3busXYVU3dPfrtqibeyFwgJqdhbYnCchMFViOsUIdgTSKl-ALabRm5ol2eeHR650e0ZWPcFA9r8tAAyNlsZuUfchBzjJ2stxJwsMGJ2U2ikKc2bluNh3stBg*d5&amp;new=1</v>
       </c>
       <c r="K82" t="str">
         <v>Tone</v>
@@ -3217,7 +3182,7 @@
     </row>
     <row r="83">
       <c r="B83" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C83" t="str">
         <v>日常Daily</v>
@@ -3232,16 +3197,16 @@
         <v>微信</v>
       </c>
       <c r="G83" t="str">
-        <v>LOGO大师</v>
+        <v>墨尔本找工作</v>
       </c>
       <c r="H83" t="str">
         <v>-</v>
       </c>
       <c r="I83" t="str">
-        <v>2018只剩1/3了，总得留下点什么做纪念吧！</v>
+        <v>家具店销售</v>
       </c>
       <c r="J83" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=Z2hGBvvVq8ub8ZIJFXbsfyaOs41C6Yhf9gJQ*Ig1zIpfYbNOYVLWZ-51NR2yDscy3Q1eiRTwRgFvUB4vyRuJImcb5hheCPbn*LYStxs3qBgx85fEGuGBVTwPL07U9NDp&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=iqS1euAVgv0Zd4RD-*dkzINs63BfUt0kJ90KbYI8D84LTwIZWf9ODDd3KHlZKlhJSuWnu9ZfKAZX2DAj7eVueJqEK4OBC3-c-T3KB7VlgiAftIcPk5MjkPav1pulrR1W&amp;new=1</v>
       </c>
       <c r="K83" t="str">
         <v>Tone</v>
@@ -3252,7 +3217,7 @@
     </row>
     <row r="84">
       <c r="B84" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C84" t="str">
         <v>日常Daily</v>
@@ -3267,16 +3232,16 @@
         <v>微信</v>
       </c>
       <c r="G84" t="str">
-        <v>大人要脸</v>
+        <v>ABCDV网站</v>
       </c>
       <c r="H84" t="str">
         <v>-</v>
       </c>
       <c r="I84" t="str">
-        <v>小S素颜探班大S汪小菲，这脸不忍直视...</v>
+        <v>【被ABCDV推荐的德语学校！】有了APS马上就可以去德国</v>
       </c>
       <c r="J84" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=xkIR6t1kegDN6pIsuSmbHHbIX9YzM8toNJ38Lpqk24lHUpgX58SuNdz2uM*G9PeOZo8cA5lHDbuzeCNmomh3GZUix3lIYnD2Aykj1GGj3gXhRNKhOwHndG6A-PvvxUfy&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=433qui*f7wsjsc1K4dn6WlfqhA4tdvu1KuzcMCUUlnm9Tkn7ZaYGN3JCGIRlXAdG51Glnc9tBjYobLhPgrdcxDUGub*OC6WYRIHyrbkZODNED3NACt8XDkpkXelL6fTA&amp;new=1</v>
       </c>
       <c r="K84" t="str">
         <v>Tone</v>
@@ -3302,16 +3267,16 @@
         <v>微信</v>
       </c>
       <c r="G85" t="str">
-        <v>车少话车</v>
+        <v>都市零距离社区</v>
       </c>
       <c r="H85" t="str">
         <v>-</v>
       </c>
       <c r="I85" t="str">
-        <v>法国车还有没有救？试法国总统座驾-DS7</v>
+        <v>春夏女装新款棉麻连衣裙十三行精品女装</v>
       </c>
       <c r="J85" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=x3DDxY1pEii7YGlOdJ33aT8v*36yeUQCvq8woiY9a1Me2ufchFE1lP-G*9bOKNJtDRWCbDS4ZvGa0f2Ek4WT0cNuoT3r00eOvYMvpsnCjWhyWza06ti7g8*EAxH1McXU&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=Q62Rw3*vUwhnbo7cLw2DSUhQsmgRpkkS8VlyK00nC7cCXyR0h1guF9-k-cMoQxjVP6RuHaJdhmuus*Uk-bCwYMWVdqjT5C1sDcKc*GSP6fu17Qj82RNsltDvFPhz-rFZ&amp;new=1</v>
       </c>
       <c r="K85" t="str">
         <v>Tone</v>
@@ -3337,62 +3302,27 @@
         <v>微信</v>
       </c>
       <c r="G86" t="str">
-        <v>DS授权经销商烟台佰利达品鉴中心</v>
+        <v>跟我一天瘦掉一斤</v>
       </c>
       <c r="H86" t="str">
         <v>-</v>
       </c>
       <c r="I86" t="str">
-        <v>DS7"千里赏荷逛古城”自驾游招募中</v>
+        <v>人，永远是相互的！（写的真好）</v>
       </c>
       <c r="J86" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=uaF50T-6vdBwUsCMvxWSV4jPH3KiFhmzcXPgQ45ghvJZo3q7JgVwp8ybA6*hUbPwiXYEtkrHJ4f4QkkPsODErMKnrCP3lyVOZlKIIremPrPaH6j9EYJeI8vOZVS2ie6t&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=15ipFqyvmvj41u65C*Y2UypCDZHBl-LAuRHXpX3jWEOFF9WPoD-6GlqOqHLqPsOk*PX04SIalMaPW6x2jc6jWgj6rEmHlmsaPbBMVf-ndTttcSZyllOoNesyAj8OG4sj&amp;new=1</v>
       </c>
       <c r="K86" t="str">
         <v>Tone</v>
       </c>
       <c r="L86" t="str">
-        <v>媒体舆情</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="str">
-        <v>2018-08-01</v>
-      </c>
-      <c r="C87" t="str">
-        <v>日常Daily</v>
-      </c>
-      <c r="D87" t="str">
-        <v>微信wechat</v>
-      </c>
-      <c r="E87" t="str">
-        <v>DS</v>
-      </c>
-      <c r="F87" t="str">
-        <v>微信</v>
-      </c>
-      <c r="G87" t="str">
-        <v>都市算命师</v>
-      </c>
-      <c r="H87" t="str">
-        <v>-</v>
-      </c>
-      <c r="I87" t="str">
-        <v>【沐宣堂】易学每日一问 我能花钱，所以老公管钱。他经常吵我乱花钱，我真错了吗？判词：发蒙 ，利用刑人，用脱桎梏，以往，吝</v>
-      </c>
-      <c r="J87" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=8fTmIvJIuMMbP12FsgpMeRR12qNODswdrJFZJRAWVKohIbDLOZzKVMpBGAb6dux5ADa3OO9riUtvl400*FjiV58tDMbBje6w-xMzHW4-E0CMgmA54z32*tQ0TwZcetzz&amp;new=1</v>
-      </c>
-      <c r="K87" t="str">
-        <v>Tone</v>
-      </c>
-      <c r="L87" t="str">
         <v>媒体舆情</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C88" t="str">
         <v>日常Daily</v>
@@ -3407,16 +3337,16 @@
         <v>微信</v>
       </c>
       <c r="G88" t="str">
-        <v>江苏海外移民留学中心</v>
+        <v>MJ车谈</v>
       </c>
       <c r="H88" t="str">
         <v>-</v>
       </c>
       <c r="I88" t="str">
-        <v>美国留学签证需要准备些什么</v>
+        <v>DS6卖不好真的是因为中国人不识货？</v>
       </c>
       <c r="J88" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=1Hi5A1EWdJrpSYGvsoEoWjMu9WolXHXwlSUFf4qF1q9aS9IvMzuW6jeB6cslpw0dL-vj*R*2v1ibbP3KOyjsFNRxUBUrbi4n-Nssv5m1*Svj33hL*R1vFRRtnPJwm90s&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=riIBkzZm0VNVv1VuWlpVYrFbZKL0iNd7SkhCrghoXaA7kIOeKlTN07EzSrJ6NryF*FpodZS*c1z0CRrrv9bNw7aIsjUyM3F4-hPiT2jaGivfR7NZUTypYu8PhEVS1vFC&amp;new=1</v>
       </c>
       <c r="K88" t="str">
         <v>Tone</v>
@@ -3427,7 +3357,7 @@
     </row>
     <row r="89">
       <c r="B89" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-01</v>
       </c>
       <c r="C89" t="str">
         <v>日常Daily</v>
@@ -3442,16 +3372,16 @@
         <v>微信</v>
       </c>
       <c r="G89" t="str">
-        <v>建国成都亨孚DS品牌店</v>
+        <v>跟我一天瘦掉一斤</v>
       </c>
       <c r="H89" t="str">
         <v>-</v>
       </c>
       <c r="I89" t="str">
-        <v>驶入这个梦境，你是否似曾相识</v>
+        <v>夏天就馋这菜，长劲不长肉，下酒又下饭，两天不吃馋得慌</v>
       </c>
       <c r="J89" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=9YtaY95D1Dw7bMqzqUL6upjGrZtCLuDmDuIFhlAVZwV3VYl*PhA**i7Q64IL9U2CFQdQuJTjF0uR3BXzlG025PLZa7rz05HSV9yM67EwvrB94HT1AzkSMWY0oxmcQ7bC&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=15ipFqyvmvj41u65C*Y2UypCDZHBl-LAuRHXpX3jWEN4RJpfCLljoB1a4VY431qHYBtJQiWipKn8PqGcWXb0PMLghFBKgWiBDfvS3fCsUf2fmNqYjH64Okkfct9QJRkI&amp;new=1</v>
       </c>
       <c r="K89" t="str">
         <v>Tone</v>
@@ -3462,7 +3392,7 @@
     </row>
     <row r="90">
       <c r="B90" t="str">
-        <v>2018-07-31</v>
+        <v>2018-08-02</v>
       </c>
       <c r="C90" t="str">
         <v>日常Daily</v>
@@ -3477,16 +3407,16 @@
         <v>微信</v>
       </c>
       <c r="G90" t="str">
-        <v>大石爆料</v>
+        <v>DS締尚装饰</v>
       </c>
       <c r="H90" t="str">
         <v>-</v>
       </c>
       <c r="I90" t="str">
-        <v>组队报名！只需99元即可抢价值1598元钟村舞蹈培训课程月卡！！</v>
+        <v>客厅这样装，撩不到你算我的！</v>
       </c>
       <c r="J90" t="str">
-        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533107842&amp;ver=1033&amp;signature=3zgE7wHBDko9durbonbGH0TPgLTht*11*HneBP7gKHUGBqxAXGgT*bII4geTr22*wF0O9QDhEQyUwC1utWkPV-0ihm40OFk9yBVNkZgv2fz-yuN-o1cE0qn3BI9atxPW&amp;new=1</v>
+        <v>http://mp.weixin.qq.com/s?src=11&amp;timestamp=1533178456&amp;ver=1035&amp;signature=EKo9HejU6UceCBq3v25h0fYYmalu8sjDiy0YHjvWdUY3TT-3*opVXTYshFcoPKLXMWg6JOEPFvd3coxwd6mFdEKbUC2h0WEMYZPo3mRW6HfwN8c4Yc7aOd1VqyaJOFWS&amp;new=1</v>
       </c>
       <c r="K90" t="str">
         <v>Tone</v>
